--- a/AUTOCORRECT.xlsx
+++ b/AUTOCORRECT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Diplomatiki\glossa_aepp_web_interpreter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF5C067-F938-4D90-ADBC-77ADB34C4901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96046703-BAC0-4773-A0C9-A4DFB19FC438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{CCB591B9-2B09-45C9-9B3D-CA893BBB8B5A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCB591B9-2B09-45C9-9B3D-CA893BBB8B5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="314">
   <si>
     <t>Αλγόριθμος</t>
   </si>
@@ -446,27 +446,9 @@
     <t>ΑΡΧΗ_ΕΠΑΝΑΛΗΨΗΣ</t>
   </si>
   <si>
-    <t>ΜΕΧΡΙΣ_ΟΤΟΥ</t>
-  </si>
-  <si>
     <t>ΑΠΟΤΕΛΕΣΜΑΤΑ</t>
   </si>
   <si>
-    <r>
-      <t>ΤΕΛΟΣ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>emfanise</t>
   </si>
   <si>
@@ -855,13 +837,166 @@
   </si>
   <si>
     <t>Επανάλαβε</t>
+  </si>
+  <si>
+    <t>ΌΛΑ ΚΕΦΑΛΑΙΑ και λαθος "Σ"</t>
+  </si>
+  <si>
+    <t>ΑΛΓΟΡΙΘΜΟς</t>
+  </si>
+  <si>
+    <t>ΑΛΛΙΩς_ΑΝ</t>
+  </si>
+  <si>
+    <t>ΑΛΛΙΩς</t>
+  </si>
+  <si>
+    <t>ΤΕΛΟς_ΕΠΑΝΑΛΗΨΗς</t>
+  </si>
+  <si>
+    <t>ΑΡΧΗ_ΕΠΑΝΑΛΗΨΗς</t>
+  </si>
+  <si>
+    <t>ΜΕΧΡΙς_ΟΤΟΥ</t>
+  </si>
+  <si>
+    <t>ΤΕΛΟς</t>
+  </si>
+  <si>
+    <t>αλλιωσ</t>
+  </si>
+  <si>
+    <t>Αλλιωσ</t>
+  </si>
+  <si>
+    <t>Αλλιώσ</t>
+  </si>
+  <si>
+    <t>ΤΕΛΟς_ΑΝ</t>
+  </si>
+  <si>
+    <t>τελοσ_αν</t>
+  </si>
+  <si>
+    <t>Τελοσ_αν</t>
+  </si>
+  <si>
+    <t>Τέλοσ_αν</t>
+  </si>
+  <si>
+    <t>τελοσ_επαναληψησ</t>
+  </si>
+  <si>
+    <t>τέλοσ_επανάληψησ</t>
+  </si>
+  <si>
+    <t>Τελοσ_επαναληψησ</t>
+  </si>
+  <si>
+    <t>αρχη_επαναληψησ</t>
+  </si>
+  <si>
+    <t>αρχή_επανάληψησ</t>
+  </si>
+  <si>
+    <t>Αρχη_επαναληψησ</t>
+  </si>
+  <si>
+    <t>τελοσ</t>
+  </si>
+  <si>
+    <t>τέλοσ</t>
+  </si>
+  <si>
+    <t>Τελοσ</t>
+  </si>
+  <si>
+    <t>ΤΕΛΟΣ</t>
+  </si>
+  <si>
+    <t>allivw_an</t>
+  </si>
+  <si>
+    <t>alli;vw_an</t>
+  </si>
+  <si>
+    <t>Allivw_an</t>
+  </si>
+  <si>
+    <t>Alli;vw_an</t>
+  </si>
+  <si>
+    <t>allivs</t>
+  </si>
+  <si>
+    <t>alli;vs</t>
+  </si>
+  <si>
+    <t>t;elos_an</t>
+  </si>
+  <si>
+    <t>Allivs</t>
+  </si>
+  <si>
+    <t>Telos_an</t>
+  </si>
+  <si>
+    <t>Alli;vs</t>
+  </si>
+  <si>
+    <t>T;elos_an</t>
+  </si>
+  <si>
+    <t>ALLIVS</t>
+  </si>
+  <si>
+    <t>telos_epanalhchs</t>
+  </si>
+  <si>
+    <t>arxh_epanalhchs</t>
+  </si>
+  <si>
+    <t>t;elos_epan;alhchs</t>
+  </si>
+  <si>
+    <t>arx;h_epan;alhchs</t>
+  </si>
+  <si>
+    <t>t;elos</t>
+  </si>
+  <si>
+    <t>Telos_epanalhchs</t>
+  </si>
+  <si>
+    <t>Arxh_epanalhchs</t>
+  </si>
+  <si>
+    <t>Telos</t>
+  </si>
+  <si>
+    <t>T;elos_epan;alhchs</t>
+  </si>
+  <si>
+    <t>Arx;h_epan;alhchs</t>
+  </si>
+  <si>
+    <t>T;elos</t>
+  </si>
+  <si>
+    <t>TELOS_EPANALHCHS</t>
+  </si>
+  <si>
+    <t>ARXH_EPANALHCHS</t>
+  </si>
+  <si>
+    <t>ALLIVW_AN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,22 +1029,22 @@
       <family val="3"/>
       <charset val="161"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1008,50 +1143,70 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1060,32 +1215,40 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1094,123 +1257,57 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -1545,16 +1642,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918D948B-F2B9-4D0F-8F55-03FA118DCD07}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1579,397 +1676,392 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" s="24" t="s">
+      <c r="S3" s="11"/>
+      <c r="T3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="24" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="V4" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="W4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="X4" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="24" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="P5" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="24" t="s">
+      <c r="Q5" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="R5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="Q5" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="R5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="15"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="N6" s="16" t="s">
+      <c r="K6" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="T6" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="V6" s="16" t="s">
+      <c r="T6" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="W6" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="W6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>134</v>
+      <c r="X6" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1979,351 +2071,351 @@
         <v>61</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="K7" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="O7" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M9" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="T7" s="12" t="s">
+      <c r="N9" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="T9" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="U9" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="V9" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="W7" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="X7" s="13" t="s">
+      <c r="W9" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="X8" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="T9" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="X9" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="X10" s="13" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="H11" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="I11" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="J11" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="J11" s="25" t="s">
+      <c r="K11" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="M11" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="N11" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="O11" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="P11" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="Q11" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="P11" s="25" t="s">
+      <c r="R11" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="S11" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="T11" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="U11" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="T11" s="25" t="s">
+      <c r="V11" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="U11" s="26" t="s">
+      <c r="W11" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="V11" s="26" t="s">
+      <c r="X11" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="W11" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="X11" s="27" t="s">
-        <v>233</v>
-      </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -2332,108 +2424,108 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R12" s="12"/>
       <c r="S12" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="U12" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="T12" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>242</v>
-      </c>
       <c r="V12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="W12" s="12"/>
+      <c r="X12" s="20" t="s">
         <v>149</v>
-      </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="26" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="L13" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26" t="s">
+      <c r="M13" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="R13" s="13"/>
+      <c r="S13" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26" t="s">
+      <c r="T13" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26" t="s">
+      <c r="U13" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="T13" s="26" t="s">
+      <c r="V13" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="U13" s="26" t="s">
+      <c r="W13" s="13"/>
+      <c r="X13" s="21" t="s">
         <v>252</v>
-      </c>
-      <c r="V13" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="W13" s="26"/>
-      <c r="X13" s="27" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -2447,246 +2539,398 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+        <v>253</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>275</v>
+      </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="T14" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>281</v>
+      </c>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
-      <c r="X14" s="13"/>
+      <c r="X14" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="15"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="15"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="2" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="17"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="13"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="15"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="15"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="17"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AUTOCORRECT.xlsx
+++ b/AUTOCORRECT.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Diplomatiki\glossa_aepp_web_interpreter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filo\Desktop\PMS_ERGASIES\DIPLOMATIKH\glossa_aepp_web_interpreter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96046703-BAC0-4773-A0C9-A4DFB19FC438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C1160C-11A3-4D1A-A6F5-D8C15037A882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCB591B9-2B09-45C9-9B3D-CA893BBB8B5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCB591B9-2B09-45C9-9B3D-CA893BBB8B5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="algorithm" sheetId="2" r:id="rId2"/>
+    <sheet name="program" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="463">
   <si>
     <t>Αλγόριθμος</t>
   </si>
@@ -991,12 +993,679 @@
   <si>
     <t>ALLIVW_AN</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE06C75"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>variations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF98C379"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"εκτύπωσε"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF98C379"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"εκτυπωσε"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF98C379"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Εκτυπωσε"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE06C75"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>correct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF98C379"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Εκτύπωσε"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE06C75"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>variations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF98C379"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"αλγοριθμος"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE06C75"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>correct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF98C379"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Αλγόριθμος"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <t>{variations: ["αλλιως_αν", "Αλλιως_αν", "Αλλιώς_αν", "ΑΛΛΙΩς_ΑΝ", "allivw_an", "alli;vw_an", "Allivw_an", "Alli;vw_an", "ALLIVW_AN", "alliws_an", "ALLIWS_AN", "αλλιωσ_αν", "αλλιώσ_αν", "Αλλιωσ_αν", "Αλλιώσ_αν", "ΑΛΛΙΩΣ_ΑΝ", "allivs_an", "alli;vs_an", "Allivs_an", "Alli;vs_an", "ALLIVS_AN"], correct: "αλλιώς_αν" }</t>
+  </si>
+  <si>
+    <t>{variations: ["αλγοριθμος", "αλγόριθμος", "Αλγοριθμος", "ΑΛΓΟΡΙΘΜΟς", "algoriumow", "alg;oriumow", "Algoriumow", "Alg;oriumow", "ALGORITHMOW", "algorithmos", "ALGORITHMOS", "αλγοριθμοσ", "αλγόριθμοσ", "Αλγοριθμοσ", "Αλγόριθμοσ", "ΑΛΓΟΡΙΘΜΟΣ", "algoriumos", "alg;oriumos", "Algoriumos", "Alg;oriumos"], correct: "Αλγόριθμος" }</t>
+  </si>
+  <si>
+    <t>{variations: ["δεδομενα", "δεδομένα", "Δεδομενα", "ΔΕΔΟΜΕΝΑ", "dedomena", "dedom;ena", "Dedomena", "Dedom;ena", "DEDOMENA"], correct: "Δεδομένα" }</t>
+  </si>
+  <si>
+    <t>{variations: ["εμφανισε", "εμφάνισε", "Εμφανισε", "ΕΜΦΑΝΙΣΕ", "emfanise", "emf;anise", "Emfanise", "Emf;anise", "EMFANISE"], correct: "Εμφάνισε" }</t>
+  </si>
+  <si>
+    <t>{variations: ["εκτυπωσε", "εκτύπωσε", "Εκτυπωσε", "ΕΚΤΥΠΩΣΕ", "ektypvse", "ekt;ypvse", "Ektypvse", "Ekt;ypvse", "EKTYPVSE", "ektypwse", "EKTYPWSE"], correct: "Εκτύπωσε" }</t>
+  </si>
+  <si>
+    <t>{variations: ["διαβασε", "διάβασε", "Διαβασε", "ΔΙΑΒΑΣΕ", "diabase", "di;abase", "Diabase", "Di;abase", "DIABASE", "diavase", "DIAVASE"], correct: "Διάβασε" }</t>
+  </si>
+  <si>
+    <t>{variations: ["αντιμεταθεσε", "αντιμετάθεσε", "Αντιμεταθεσε", "ΑΝΤΙΜΕΤΑΘΕΣΕ", "antimetauese", "antimet;auese", "Antimetauese", "Antimet;auese", "ANTIMETAUESE", "antimetathese", "ANTIMETATHESE"], correct: "Αντιμετάθεσε" }</t>
+  </si>
+  <si>
+    <t>{variations: ["αν", "ΑΝ", "an", "An", "AN"], correct: "Αν" }</t>
+  </si>
+  <si>
+    <t>{variations: ["τοτε", "Τοτε", "Τότε", "ΤΟΤΕ", "tote", "t;ote", "Tote", "T;ote", "TOTE"], correct: "τότε" }</t>
+  </si>
+  <si>
+    <t>{variations: ["αλλιως", "Αλλιως", "Αλλιώς", "ΑΛΛΙΩς", "allivw", "alli;vw", "Allivw", "Alli;vw", "ALLIVW", "alliws", "ALLIWS", "αλλιωσ", "Αλλιωσ", "Αλλιώσ", "ΑΛΛΙΩΣ", "allivs", "alli;vs", "Allivs", "Alli;vs", "ALLIVS"], correct: "αλλιώς" }</t>
+  </si>
+  <si>
+    <t>{variations: ["τελος_αν", "Τελος_αν", "ΤΕΛΟς_ΑΝ", "telow_an", "t;elow_an", "Telow_an", "T;elow_an", "TELOW_AN", "telos_an", "TELOS_AN", "τελοσ_αν", "Τελοσ_αν", "Τέλοσ_αν", "ΤΕΛΟΣ_ΑΝ", "t;elos_an", "Telos_an", "T;elos_an"], correct: "Τέλος_αν" }</t>
+  </si>
+  <si>
+    <t>{variations: ["για", "ΓΙΑ", "gia", "Gia", "GIA"], correct: "Για" }</t>
+  </si>
+  <si>
+    <t>{variations: ["απο", "Απο", "Από", "ΑΠΟ", "apo", "ap;o", "Apo", "Ap;o", "APO"], correct: "από" }</t>
+  </si>
+  <si>
+    <t>{variations: ["μεχρι", "Μεχρι", "Μέχρι", "ΜΕΧΡΙ", "mexri", "m;exri", "Mexri", "M;exri", "MEXRI"], correct: "μέχρι" }</t>
+  </si>
+  <si>
+    <t>{variations: ["με_βημα", "Με_βημα", "Με_βήμα", "ΜΕ_ΒΗΜΑ", "me_bhma", "me_b;hma", "Me_bhma", "Me_b;hma", "ME_BHMA", "me_vhma", "ME_VHMA"], correct: "με_βήμα" }</t>
+  </si>
+  <si>
+    <t>{variations: ["οσο", "όσο", "Οσο", "Όσο", "ΟΣΟ", "oso", ";oso", "Oso", ";Oso", "OSO"], correct: "Όσο" }</t>
+  </si>
+  <si>
+    <t>{variations: ["επαναλαβε", "Επαναλαβε", "Επανάλαβε", "ΕΠΑΝΑΛΑΒΕ", "epanalabe", "epan;alabe", "Epanalabe", "Epan;alabe", "EPANALABE", "epanalave", "EPANALAVE"], correct: "επανάλαβε" }</t>
+  </si>
+  <si>
+    <t>{variations: ["τελος_επαναληψης", "τέλος_επανάληψης", "Τελος_επαναληψης", "ΤΕΛΟς_ΕΠΑΝΑΛΗΨΗς", "telow_epanalhchw", "t;elow_epan;alhchw", "Telow_epanalhchw", "T;elow_epan;alhchw", "TELOW_EPANALHCHW", "telos_epanalhpshs", "TELOS_EPANALHPSHS", "τελοσ_επαναληψησ", "τέλοσ_επανάληψησ", "Τελοσ_επαναληψησ", "ΤΕΛΟΣ_ΕΠΑΝΑΛΗΨΗΣ", "telos_epanalhchs", "t;elos_epan;alhchs", "Telos_epanalhchs", "T;elos_epan;alhchs", "TELOS_EPANALHCHS"], correct: "Τέλος_επανάληψης" }</t>
+  </si>
+  <si>
+    <t>{variations: ["αρχη_επαναληψης", "αρχή_επανάληψης", "Αρχη_επαναληψης", "ΑΡΧΗ_ΕΠΑΝΑΛΗΨΗς", "arxh_epanalhchw", "arx;h_epan;alhchw", "Arxh_epanalhchw", "Arx;h_epan;alhchw", "ARXH_EPANALHCHW", "arxh_epanalhpshs", "ARXH_EPANALHPSHS", "αρχη_επαναληψησ", "αρχή_επανάληψησ", "Αρχη_επαναληψησ", "ΑΡΧΗ_ΕΠΑΝΑΛΗΨΗΣ", "arxh_epanalhchs", "arx;h_epan;alhchs", "Arxh_epanalhchs", "Arx;h_epan;alhchs", "ARXH_EPANALHCHS"], correct: "Αρχή_επανάληψης" }</t>
+  </si>
+  <si>
+    <t>{variations: ["μεχρις_οτου", "μέχρις_ότου", "Μεχρις_οτου", "ΜΕΧΡΙς_ΟΤΟΥ", "mexriw_otoy", "m;exriw_;otoy", "Mexriw_otoy", "M;exriw_;otoy", "MEXRIW_OTOY", "mexris_otoy", "MEXRIS_OTOY"], correct: "Μέχρις_ότου" }</t>
+  </si>
+  <si>
+    <t>{variations: ["αποτελεσματα", "αποτελέσματα", "Αποτελεσματα", "ΑΠΟΤΕΛΕΣΜΑΤΑ", "apotelesmata", "apotel;esmata", "Apotelesmata", "Apotel;esmata", "APOTELESMATA"], correct: "Αποτελέσματα" }</t>
+  </si>
+  <si>
+    <t>{variations: ["τελος", "τέλος", "Τελος", "ΤΕΛΟς", "telow", "t;elow", "Telow", "T;elow", "TELOW", "telos", "TELOS", "τελοσ", "τέλοσ", "Τελοσ", "ΤΕΛΟΣ", "t;elos", "Telos", "T;elos"], correct: "Τέλος " }</t>
+  </si>
+  <si>
+    <t>ΠΡΟΓΡΑΜΜΑ</t>
+  </si>
+  <si>
+    <t>ΣΤΑΘΕΡΕΣ</t>
+  </si>
+  <si>
+    <t>ΜΕΤΑΒΛΗΤΕΣ</t>
+  </si>
+  <si>
+    <t>ΑΡΧΗ</t>
+  </si>
+  <si>
+    <t>ΤΕΛΟΣ_ΠΡΟΓΡΑΜΜΑΤΟΣ</t>
+  </si>
+  <si>
+    <t>ΔΙΑΔΙΚΑΣΙΑ</t>
+  </si>
+  <si>
+    <t>ΤΕΛΟΣ_ΔΙΑΔΙΚΑΣΙΑΣ</t>
+  </si>
+  <si>
+    <t>ΤΕΛΟΣ_ΣΥΝΑΡΤΗΣΗΣ</t>
+  </si>
+  <si>
+    <t>ΣΥΝΑΡΤΗΣΗ</t>
+  </si>
+  <si>
+    <t>Η</t>
+  </si>
+  <si>
+    <t>ΚΑΙ</t>
+  </si>
+  <si>
+    <t>ΌΧΙ</t>
+  </si>
+  <si>
+    <t>προγραμμα</t>
+  </si>
+  <si>
+    <t>σταθερες</t>
+  </si>
+  <si>
+    <t>σταθερεσ</t>
+  </si>
+  <si>
+    <t>staueres</t>
+  </si>
+  <si>
+    <t>stauerew</t>
+  </si>
+  <si>
+    <t>STAUERES</t>
+  </si>
+  <si>
+    <t>STAUEREW</t>
+  </si>
+  <si>
+    <t>STATHERES</t>
+  </si>
+  <si>
+    <t>statheres</t>
+  </si>
+  <si>
+    <t>programma</t>
+  </si>
+  <si>
+    <t>PROGRAMMA</t>
+  </si>
+  <si>
+    <t>μεταβλητες</t>
+  </si>
+  <si>
+    <t>αρχη</t>
+  </si>
+  <si>
+    <t>τελος_προγραμματος</t>
+  </si>
+  <si>
+    <t>διαδικασια</t>
+  </si>
+  <si>
+    <t>τελος_διαδικασιας</t>
+  </si>
+  <si>
+    <t>συναρτηση</t>
+  </si>
+  <si>
+    <t>τελος_συναρτησης</t>
+  </si>
+  <si>
+    <t>η</t>
+  </si>
+  <si>
+    <t>και</t>
+  </si>
+  <si>
+    <t>όχι</t>
+  </si>
+  <si>
+    <t>:ΠΡΑΓΜΑΤΙΚΗ</t>
+  </si>
+  <si>
+    <t>:ΧΑΡΑΚΤΗΡΑΣ</t>
+  </si>
+  <si>
+    <t>:ΛΟΓΙΚΗ</t>
+  </si>
+  <si>
+    <t>:ΑΚΕΡΑΙΑ</t>
+  </si>
+  <si>
+    <t>ΑΚΕΡΑΙΕΣ:</t>
+  </si>
+  <si>
+    <t>ΠΡΑΓΜΑΤΙΚΕΣ:</t>
+  </si>
+  <si>
+    <t>ΧΑΡΑΚΤΗΡΕΣ:</t>
+  </si>
+  <si>
+    <t>ΛΟΓΙΚΕΣ:</t>
+  </si>
+  <si>
+    <t>ΓΡΑΨΕ</t>
+  </si>
+  <si>
+    <t>ΜΕΧΡΙΣ_ΟΤΟΥ</t>
+  </si>
+  <si>
+    <t>ΚΑΛΕΣΕ</t>
+  </si>
+  <si>
+    <t>ακεραιες:</t>
+  </si>
+  <si>
+    <t>πραγματικες:</t>
+  </si>
+  <si>
+    <t>χαρακτηρες:</t>
+  </si>
+  <si>
+    <t>λογικες:</t>
+  </si>
+  <si>
+    <t>γραψε</t>
+  </si>
+  <si>
+    <t>καλεσε</t>
+  </si>
+  <si>
+    <t>:ακεραια</t>
+  </si>
+  <si>
+    <t>:πραγματικη</t>
+  </si>
+  <si>
+    <t>:χαρακτηρας</t>
+  </si>
+  <si>
+    <t>:λογικη</t>
+  </si>
+  <si>
+    <t>metablhtes</t>
+  </si>
+  <si>
+    <t>metablhtew</t>
+  </si>
+  <si>
+    <t>akeraiew</t>
+  </si>
+  <si>
+    <t>pragmatikew</t>
+  </si>
+  <si>
+    <t>xarakthrew</t>
+  </si>
+  <si>
+    <t>logikew</t>
+  </si>
+  <si>
+    <t>arxh</t>
+  </si>
+  <si>
+    <t>grace</t>
+  </si>
+  <si>
+    <t>kalewe</t>
+  </si>
+  <si>
+    <t>telow_programmatow</t>
+  </si>
+  <si>
+    <t>diadikasia</t>
+  </si>
+  <si>
+    <t>telow_diadikasiaw</t>
+  </si>
+  <si>
+    <t>synarthsh</t>
+  </si>
+  <si>
+    <t>akeraia</t>
+  </si>
+  <si>
+    <t>pragmatikh</t>
+  </si>
+  <si>
+    <t>xarakthras</t>
+  </si>
+  <si>
+    <t>logikh</t>
+  </si>
+  <si>
+    <t>telow_synarthshs</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>kai</t>
+  </si>
+  <si>
+    <t>oxi</t>
+  </si>
+  <si>
+    <t>οχι</t>
+  </si>
+  <si>
+    <t>;oxi</t>
+  </si>
+  <si>
+    <t>METABLHTEW</t>
+  </si>
+  <si>
+    <t>AKERAIEW</t>
+  </si>
+  <si>
+    <t>PRAGMATIKEW</t>
+  </si>
+  <si>
+    <t>XARAKTHREW</t>
+  </si>
+  <si>
+    <t>LOGIKEW</t>
+  </si>
+  <si>
+    <t>ARXH</t>
+  </si>
+  <si>
+    <t>GRACE</t>
+  </si>
+  <si>
+    <t>KALEWE</t>
+  </si>
+  <si>
+    <t>TELOW_PROGRAMMATOW</t>
+  </si>
+  <si>
+    <t>DIADIKASIA</t>
+  </si>
+  <si>
+    <t>TELOW_DIADIKASIAW</t>
+  </si>
+  <si>
+    <t>SYNARTHSH</t>
+  </si>
+  <si>
+    <t>AKERAIA</t>
+  </si>
+  <si>
+    <t>PRAGMATIKH</t>
+  </si>
+  <si>
+    <t>XARAKTHRAS</t>
+  </si>
+  <si>
+    <t>LOGIKH</t>
+  </si>
+  <si>
+    <t>TELOW_SYNARTHSHS</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>KAI</t>
+  </si>
+  <si>
+    <t>OXI</t>
+  </si>
+  <si>
+    <t>akeraies</t>
+  </si>
+  <si>
+    <t>pragmatikes</t>
+  </si>
+  <si>
+    <t>xarakthres</t>
+  </si>
+  <si>
+    <t>logikes</t>
+  </si>
+  <si>
+    <t>kalese</t>
+  </si>
+  <si>
+    <t>telos_programmatos</t>
+  </si>
+  <si>
+    <t>telos_diadikasias</t>
+  </si>
+  <si>
+    <t>telos_synarthshs</t>
+  </si>
+  <si>
+    <t>grapse</t>
+  </si>
+  <si>
+    <t>METABLHTES</t>
+  </si>
+  <si>
+    <t>AKERAIES</t>
+  </si>
+  <si>
+    <t>PRAGMATIKES</t>
+  </si>
+  <si>
+    <t>XARAKTHRES</t>
+  </si>
+  <si>
+    <t>LOGIKES</t>
+  </si>
+  <si>
+    <t>GRAPSE</t>
+  </si>
+  <si>
+    <t>KALESE</t>
+  </si>
+  <si>
+    <t>TELOS_PROGRAMMATOS</t>
+  </si>
+  <si>
+    <t>TELOS_DIADIKASIAS</t>
+  </si>
+  <si>
+    <t>TELOS_SYNARTHSHS</t>
+  </si>
+  <si>
+    <t>μεταβλητεσ</t>
+  </si>
+  <si>
+    <t>ακεραιεσ:</t>
+  </si>
+  <si>
+    <t>πραγματικεσ:</t>
+  </si>
+  <si>
+    <t>χαρακτηρεσ:</t>
+  </si>
+  <si>
+    <t>μεχρισ_οτου</t>
+  </si>
+  <si>
+    <t>τελοσ_προγραμματοσ</t>
+  </si>
+  <si>
+    <t>τελοσ_διαδικασιασ</t>
+  </si>
+  <si>
+    <t>:χαρακτηρασ</t>
+  </si>
+  <si>
+    <t>τελοσ_συναρτησησ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,6 +1697,50 @@
       <name val="Lucida Console"/>
       <family val="3"/>
       <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE06C75"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF56B6C2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF98C379"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1273,11 +1986,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1296,21 +2021,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,7 +2062,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1642,231 +2378,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918D948B-F2B9-4D0F-8F55-03FA118DCD07}">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:AP48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" customWidth="1"/>
     <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11" t="s">
+      <c r="S3" s="5"/>
+      <c r="T3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="5" t="s">
         <v>94</v>
       </c>
       <c r="X3" s="2" t="s">
@@ -1874,67 +2624,67 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="5" t="s">
         <v>113</v>
       </c>
       <c r="X4" s="2" t="s">
@@ -1942,115 +2692,115 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11" t="s">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="W6" s="7" t="s">
         <v>132</v>
       </c>
       <c r="X6" s="3" t="s">
@@ -2058,73 +2808,73 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="U7" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="V7" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="W7" s="6" t="s">
         <v>148</v>
       </c>
       <c r="X7" s="1" t="s">
@@ -2132,67 +2882,67 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="W8" s="5" t="s">
         <v>161</v>
       </c>
       <c r="X8" s="2" t="s">
@@ -2200,71 +2950,71 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="W9" s="5" t="s">
         <v>184</v>
       </c>
       <c r="X9" s="2" t="s">
@@ -2272,67 +3022,67 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11" t="s">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="W10" s="5" t="s">
         <v>210</v>
       </c>
       <c r="X10" s="2" t="s">
@@ -2340,71 +3090,71 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="T11" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="U11" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="W11" s="13" t="s">
+      <c r="W11" s="7" t="s">
         <v>230</v>
       </c>
       <c r="X11" s="3" t="s">
@@ -2412,521 +3162,2033 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12" t="s">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12" t="s">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12" t="s">
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="T12" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="U12" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="20" t="s">
+      <c r="W12" s="6"/>
+      <c r="X12" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13" t="s">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13" t="s">
+      <c r="R13" s="7"/>
+      <c r="S13" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="U13" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="V13" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="W13" s="13"/>
-      <c r="X13" s="21" t="s">
+      <c r="W13" s="7"/>
+      <c r="X13" s="15" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12" t="s">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="U14" s="12" t="s">
+      <c r="U14" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
       <c r="X14" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11" t="s">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
       <c r="X15" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11" t="s">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
       <c r="X16" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13" t="s">
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="U18" s="13" t="s">
+      <c r="U18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
       <c r="X18" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12" t="s">
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="U19" s="12" t="s">
+      <c r="U19" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11" t="s">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11" t="s">
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
       <c r="X20" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11" t="s">
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
       <c r="X21" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11" t="s">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="U22" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
       <c r="X22" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13" t="s">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="U23" s="13" t="s">
+      <c r="U23" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="25" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="T26" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="U26" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="V26" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="W26" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="X26" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y26" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z26" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA26" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB26" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC26" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD26" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE26" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF26" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG26" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH26" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI26" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ26" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK26" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="AL26" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM26" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="AN26" s="30"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="27"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="R27" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="S27" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="T27" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="U27" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="V27" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="W27" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="X27" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y27" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z27" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA27" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB27" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC27" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="AD27" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE27" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF27" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG27" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH27" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI27" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="AJ27" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK27" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="AL27" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="AM27" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="AN27" s="31"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="AN28" s="31"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="31"/>
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="31"/>
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+    </row>
+    <row r="31" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="N32" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="O32" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="P32" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q32" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="R32" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="S32" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="T32" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="U32" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="V32" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="W32" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="X32" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y32" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z32" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA32" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB32" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC32" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD32" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE32" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF32" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG32" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="AH32" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="AI32" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="AJ32" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="AK32" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="AL32" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM32" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN32" s="31"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="31"/>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN33" s="31"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+    </row>
+    <row r="36" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="L36" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="N36" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="O36" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="P36" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q36" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="R36" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="S36" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="T36" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="U36" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="V36" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="W36" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="X36" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y36" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z36" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA36" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB36" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC36" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD36" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE36" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF36" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG36" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH36" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="AI36" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="AJ36" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK36" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="AL36" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="AM36" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN36" s="31"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="N37" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="P37" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q37" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="R37" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="S37" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="T37" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="U37" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="V37" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="W37" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="X37" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y37" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z37" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA37" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB37" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC37" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD37" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE37" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF37" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG37" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="AH37" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="AI37" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="AJ37" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK37" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="AL37" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM37" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN37" s="31"/>
+    </row>
+    <row r="38" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="J38" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="K38" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="L38" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="M38" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="N38" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="O38" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="P38" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="R38" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="S38" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="T38" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="U38" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="V38" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="W38" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="X38" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y38" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z38" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA38" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB38" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC38" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD38" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE38" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF38" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG38" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH38" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="AI38" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="AJ38" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="AK38" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="AL38" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="AM38" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN38" s="31"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="P39" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q39" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z39" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="31"/>
+      <c r="AH39" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="AI39" s="31"/>
+      <c r="AJ39" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK39" s="31"/>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="31"/>
+      <c r="AH40" s="31"/>
+      <c r="AI40" s="31"/>
+      <c r="AJ40" s="31"/>
+      <c r="AK40" s="31"/>
+      <c r="AL40" s="31"/>
+      <c r="AM40" s="31"/>
+      <c r="AN40" s="31"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="AF41" s="31"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="31"/>
+      <c r="AI41" s="31"/>
+      <c r="AJ41" s="31"/>
+      <c r="AK41" s="31"/>
+      <c r="AL41" s="31"/>
+      <c r="AM41" s="31"/>
+      <c r="AN41" s="31"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="31"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="31"/>
+      <c r="AE42" s="31"/>
+      <c r="AF42" s="31"/>
+      <c r="AG42" s="31"/>
+      <c r="AH42" s="31"/>
+      <c r="AI42" s="31"/>
+      <c r="AJ42" s="31"/>
+      <c r="AK42" s="31"/>
+      <c r="AL42" s="31"/>
+      <c r="AM42" s="31"/>
+      <c r="AN42" s="31"/>
+    </row>
+    <row r="43" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="31"/>
+      <c r="Z43" s="31"/>
+      <c r="AA43" s="31"/>
+      <c r="AB43" s="31"/>
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="31"/>
+      <c r="AE43" s="31"/>
+      <c r="AF43" s="31"/>
+      <c r="AG43" s="31"/>
+      <c r="AH43" s="31"/>
+      <c r="AI43" s="31"/>
+      <c r="AJ43" s="31"/>
+      <c r="AK43" s="31"/>
+      <c r="AL43" s="31"/>
+      <c r="AM43" s="31"/>
+      <c r="AN43" s="31"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="31"/>
+      <c r="AH44" s="31"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="31"/>
+      <c r="AL44" s="31"/>
+      <c r="AM44" s="31"/>
+      <c r="AN44" s="31"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
+      <c r="AE45" s="31"/>
+      <c r="AF45" s="31"/>
+      <c r="AG45" s="31"/>
+      <c r="AH45" s="31"/>
+      <c r="AI45" s="31"/>
+      <c r="AJ45" s="31"/>
+      <c r="AK45" s="31"/>
+      <c r="AL45" s="31"/>
+      <c r="AM45" s="31"/>
+      <c r="AN45" s="31"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="31"/>
+      <c r="AF46" s="31"/>
+      <c r="AG46" s="31"/>
+      <c r="AH46" s="31"/>
+      <c r="AI46" s="31"/>
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="31"/>
+      <c r="AL46" s="31"/>
+      <c r="AM46" s="31"/>
+      <c r="AN46" s="31"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="31"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31"/>
+      <c r="AE47" s="31"/>
+      <c r="AF47" s="31"/>
+      <c r="AG47" s="31"/>
+      <c r="AH47" s="31"/>
+      <c r="AI47" s="31"/>
+      <c r="AJ47" s="31"/>
+      <c r="AK47" s="31"/>
+      <c r="AL47" s="31"/>
+      <c r="AM47" s="31"/>
+      <c r="AN47" s="31"/>
+    </row>
+    <row r="48" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="31"/>
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="31"/>
+      <c r="AE48" s="31"/>
+      <c r="AF48" s="31"/>
+      <c r="AG48" s="31"/>
+      <c r="AH48" s="31"/>
+      <c r="AI48" s="31"/>
+      <c r="AJ48" s="31"/>
+      <c r="AK48" s="31"/>
+      <c r="AL48" s="31"/>
+      <c r="AM48" s="31"/>
+      <c r="AN48" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A14:A18"/>
@@ -2935,4 +5197,4707 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4677166C-B22D-4310-BA0C-62F71D0D1B5B}">
+  <dimension ref="A1:X74"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="7"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="7"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="X12" s="7"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="7"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="7"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="7"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="7"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="S19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="7"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C30,""", """,D30,""", """,E30,""", """,F30,""", """,G30,""", """,H30,""", """,I30,""", """,J30,""", """,K30,""", """,L30,""", """,M30,""", """,N30,""", """,O30,""", """,P30,""", """,Q30,""", """,R30,""", """,S30,""", """,T30,""", """,U30,""", """,V30,""", """,W30,"""]",", correct: """,B30,""" }")</f>
+        <v>{variations: ["αλγοριθμος", "αλγόριθμος", "Αλγοριθμος", "ΑΛΓΟΡΙΘΜΟς", "algoriumow", "alg;oriumow", "Algoriumow", "Alg;oriumow", "ALGORITHMOW", "algorithmos", "ALGORITHMOS", "αλγοριθμοσ", "αλγόριθμοσ", "Αλγοριθμοσ", "Αλγόριθμοσ", "ΑΛΓΟΡΙΘΜΟΣ", "algoriumos", "alg;oriumos", "Algoriumos", "Alg;oriumos", ""], correct: "Αλγόριθμος" }</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C31,""", """,D31,""", """,E31,""", """,F31,""", """,G31,""", """,H31,""", """,I31,""", """,J31,""", """,K31,""", """,L31,""", """,M31,""", """,N31,""", """,O31,""", """,P31,""", """,Q31,""", """,R31,""", """,S31,""", """,T31,""", """,U31,""", """,V31,""", """,W31,"""]",", correct: """,B31,""" }")</f>
+        <v>{variations: ["αλλιως", "Αλλιως", "Αλλιώς", "ΑΛΛΙΩς", "allivw", "alli;vw", "Allivw", "Alli;vw", "ALLIVW", "alliws", "ALLIWS", "αλλιωσ", "Αλλιωσ", "Αλλιώσ", "ΑΛΛΙΩΣ", "allivs", "alli;vs", "Allivs", "Alli;vs", "ALLIVS", ""], correct: "αλλιώς" }</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="P31" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="R31" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="S31" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="T31" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="U31" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="V31" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C32,""", """,D32,""", """,E32,""", """,F32,""", """,G32,""", """,H32,""", """,I32,""", """,J32,""", """,K32,""", """,L32,""", """,M32,""", """,N32,""", """,O32,""", """,P32,""", """,Q32,""", """,R32,""", """,S32,""", """,T32,""", """,U32,""", """,V32,""", """,W32,"""]",", correct: """,B32,""" }")</f>
+        <v>{variations: ["αλλιως_αν", "Αλλιως_αν", "Αλλιώς_αν", "ΑΛΛΙΩς_ΑΝ", "allivw_an", "alli;vw_an", "Allivw_an", "Alli;vw_an", "ALLIVW_AN", "alliws_an", "ALLIWS_AN", "αλλιωσ_αν", "αλλιώσ_αν", "Αλλιωσ_αν", "Αλλιώσ_αν", "ΑΛΛΙΩΣ_ΑΝ", "allivs_an", "alli;vs_an", "Allivs_an", "Alli;vs_an", "ALLIVS_AN"], correct: "αλλιώς_αν" }</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="S32" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="T32" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="U32" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="V32" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="W32" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C33,""", """,D33,""", """,E33,""", """,F33,""", """,G33,""", """,H33,""", """,I33,""", """,J33,""", """,K33,""", """,L33,""", """,M33,""", """,N33,""", """,O33,""", """,P33,""", """,Q33,""", """,R33,""", """,S33,""", """,T33,""", """,U33,""", """,V33,""", """,W33,"""]",", correct: """,B33,""" }")</f>
+        <v>{variations: ["αν", "ΑΝ", "an", "An", "AN", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Αν" }</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C34,""", """,D34,""", """,E34,""", """,F34,""", """,G34,""", """,H34,""", """,I34,""", """,J34,""", """,K34,""", """,L34,""", """,M34,""", """,N34,""", """,O34,""", """,P34,""", """,Q34,""", """,R34,""", """,S34,""", """,T34,""", """,U34,""", """,V34,""", """,W34,"""]",", correct: """,B34,""" }")</f>
+        <v>{variations: ["αντιμεταθεσε", "αντιμετάθεσε", "Αντιμεταθεσε", "ΑΝΤΙΜΕΤΑΘΕΣΕ", "antimetauese", "antimet;auese", "Antimetauese", "Antimet;auese", "ANTIMETAUESE", "antimetathese", "ANTIMETATHESE", "", "", "", "", "", "", "", "", "", ""], correct: "Αντιμετάθεσε" }</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C35,""", """,D35,""", """,E35,""", """,F35,""", """,G35,""", """,H35,""", """,I35,""", """,J35,""", """,K35,""", """,L35,""", """,M35,""", """,N35,""", """,O35,""", """,P35,""", """,Q35,""", """,R35,""", """,S35,""", """,T35,""", """,U35,""", """,V35,""", """,W35,"""]",", correct: """,B35,""" }")</f>
+        <v>{variations: ["απο", "Απο", "Από", "ΑΠΟ", "apo", "ap;o", "Apo", "Ap;o", "APO", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "από" }</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C36,""", """,D36,""", """,E36,""", """,F36,""", """,G36,""", """,H36,""", """,I36,""", """,J36,""", """,K36,""", """,L36,""", """,M36,""", """,N36,""", """,O36,""", """,P36,""", """,Q36,""", """,R36,""", """,S36,""", """,T36,""", """,U36,""", """,V36,""", """,W36,"""]",", correct: """,B36,""" }")</f>
+        <v>{variations: ["αποτελεσματα", "αποτελέσματα", "Αποτελεσματα", "ΑΠΟΤΕΛΕΣΜΑΤΑ", "apotelesmata", "apotel;esmata", "Apotelesmata", "Apotel;esmata", "APOTELESMATA", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Αποτελέσματα" }</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C37,""", """,D37,""", """,E37,""", """,F37,""", """,G37,""", """,H37,""", """,I37,""", """,J37,""", """,K37,""", """,L37,""", """,M37,""", """,N37,""", """,O37,""", """,P37,""", """,Q37,""", """,R37,""", """,S37,""", """,T37,""", """,U37,""", """,V37,""", """,W37,"""]",", correct: """,B37,""" }")</f>
+        <v>{variations: ["αρχη_επαναληψης", "αρχή_επανάληψης", "Αρχη_επαναληψης", "ΑΡΧΗ_ΕΠΑΝΑΛΗΨΗς", "arxh_epanalhchw", "arx;h_epan;alhchw", "Arxh_epanalhchw", "Arx;h_epan;alhchw", "ARXH_EPANALHCHW", "arxh_epanalhpshs", "ARXH_EPANALHPSHS", "αρχη_επαναληψησ", "αρχή_επανάληψησ", "Αρχη_επαναληψησ", "ΑΡΧΗ_ΕΠΑΝΑΛΗΨΗΣ", "arxh_epanalhchs", "arx;h_epan;alhchs", "Arxh_epanalhchs", "Arx;h_epan;alhchs", "ARXH_EPANALHCHS", ""], correct: "Αρχή_επανάληψης" }</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L37" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M37" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="R37" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="S37" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="T37" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="U37" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="V37" s="24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C38,""", """,D38,""", """,E38,""", """,F38,""", """,G38,""", """,H38,""", """,I38,""", """,J38,""", """,K38,""", """,L38,""", """,M38,""", """,N38,""", """,O38,""", """,P38,""", """,Q38,""", """,R38,""", """,S38,""", """,T38,""", """,U38,""", """,V38,""", """,W38,"""]",", correct: """,B38,""" }")</f>
+        <v>{variations: ["για", "ΓΙΑ", "gia", "Gia", "GIA", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Για" }</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="7"/>
+    </row>
+    <row r="39" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C39,""", """,D39,""", """,E39,""", """,F39,""", """,G39,""", """,H39,""", """,I39,""", """,J39,""", """,K39,""", """,L39,""", """,M39,""", """,N39,""", """,O39,""", """,P39,""", """,Q39,""", """,R39,""", """,S39,""", """,T39,""", """,U39,""", """,V39,""", """,W39,"""]",", correct: """,B39,""" }")</f>
+        <v>{variations: ["δεδομενα", "δεδομένα", "Δεδομενα", "ΔΕΔΟΜΕΝΑ", "dedomena", "dedom;ena", "Dedomena", "Dedom;ena", "DEDOMENA", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Δεδομένα" }</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="7"/>
+    </row>
+    <row r="40" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C40,""", """,D40,""", """,E40,""", """,F40,""", """,G40,""", """,H40,""", """,I40,""", """,J40,""", """,K40,""", """,L40,""", """,M40,""", """,N40,""", """,O40,""", """,P40,""", """,Q40,""", """,R40,""", """,S40,""", """,T40,""", """,U40,""", """,V40,""", """,W40,"""]",", correct: """,B40,""" }")</f>
+        <v>{variations: ["διαβασε", "διάβασε", "Διαβασε", "ΔΙΑΒΑΣΕ", "diabase", "di;abase", "Diabase", "Di;abase", "DIABASE", "diavase", "DIAVASE", "", "", "", "", "", "", "", "", "", ""], correct: "Διάβασε" }</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C41,""", """,D41,""", """,E41,""", """,F41,""", """,G41,""", """,H41,""", """,I41,""", """,J41,""", """,K41,""", """,L41,""", """,M41,""", """,N41,""", """,O41,""", """,P41,""", """,Q41,""", """,R41,""", """,S41,""", """,T41,""", """,U41,""", """,V41,""", """,W41,"""]",", correct: """,B41,""" }")</f>
+        <v>{variations: ["εκτυπωσε", "εκτύπωσε", "Εκτυπωσε", "ΕΚΤΥΠΩΣΕ", "ektypvse", "ekt;ypvse", "Ektypvse", "Ekt;ypvse", "EKTYPVSE", "ektypwse", "EKTYPWSE", "", "", "", "", "", "", "", "", "", ""], correct: "Εκτύπωσε" }</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L41" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="M41" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C42,""", """,D42,""", """,E42,""", """,F42,""", """,G42,""", """,H42,""", """,I42,""", """,J42,""", """,K42,""", """,L42,""", """,M42,""", """,N42,""", """,O42,""", """,P42,""", """,Q42,""", """,R42,""", """,S42,""", """,T42,""", """,U42,""", """,V42,""", """,W42,"""]",", correct: """,B42,""" }")</f>
+        <v>{variations: ["εμφανισε", "εμφάνισε", "Εμφανισε", "ΕΜΦΑΝΙΣΕ", "emfanise", "emf;anise", "Emfanise", "Emf;anise", "EMFANISE", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Εμφάνισε" }</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C43,""", """,D43,""", """,E43,""", """,F43,""", """,G43,""", """,H43,""", """,I43,""", """,J43,""", """,K43,""", """,L43,""", """,M43,""", """,N43,""", """,O43,""", """,P43,""", """,Q43,""", """,R43,""", """,S43,""", """,T43,""", """,U43,""", """,V43,""", """,W43,"""]",", correct: """,B43,""" }")</f>
+        <v>{variations: ["επαναλαβε", "Επαναλαβε", "Επανάλαβε", "ΕΠΑΝΑΛΑΒΕ", "epanalabe", "epan;alabe", "Epanalabe", "Epan;alabe", "EPANALABE", "epanalave", "EPANALAVE", "", "", "", "", "", "", "", "", "", ""], correct: "επανάλαβε" }</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L43" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M43" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C44,""", """,D44,""", """,E44,""", """,F44,""", """,G44,""", """,H44,""", """,I44,""", """,J44,""", """,K44,""", """,L44,""", """,M44,""", """,N44,""", """,O44,""", """,P44,""", """,Q44,""", """,R44,""", """,S44,""", """,T44,""", """,U44,""", """,V44,""", """,W44,"""]",", correct: """,B44,""" }")</f>
+        <v>{variations: ["με_βημα", "Με_βημα", "Με_βήμα", "ΜΕ_ΒΗΜΑ", "me_bhma", "me_b;hma", "Me_bhma", "Me_b;hma", "ME_BHMA", "me_vhma", "ME_VHMA", "", "", "", "", "", "", "", "", "", ""], correct: "με_βήμα" }</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C45,""", """,D45,""", """,E45,""", """,F45,""", """,G45,""", """,H45,""", """,I45,""", """,J45,""", """,K45,""", """,L45,""", """,M45,""", """,N45,""", """,O45,""", """,P45,""", """,Q45,""", """,R45,""", """,S45,""", """,T45,""", """,U45,""", """,V45,""", """,W45,"""]",", correct: """,B45,""" }")</f>
+        <v>{variations: ["μεχρι", "Μεχρι", "Μέχρι", "ΜΕΧΡΙ", "mexri", "m;exri", "Mexri", "M;exri", "MEXRI", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "μέχρι" }</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C46,""", """,D46,""", """,E46,""", """,F46,""", """,G46,""", """,H46,""", """,I46,""", """,J46,""", """,K46,""", """,L46,""", """,M46,""", """,N46,""", """,O46,""", """,P46,""", """,Q46,""", """,R46,""", """,S46,""", """,T46,""", """,U46,""", """,V46,""", """,W46,"""]",", correct: """,B46,""" }")</f>
+        <v>{variations: ["μεχρις_οτου", "μέχρις_ότου", "Μεχρις_οτου", "ΜΕΧΡΙς_ΟΤΟΥ", "mexriw_otoy", "m;exriw_;otoy", "Mexriw_otoy", "M;exriw_;otoy", "MEXRIW_OTOY", "mexris_otoy", "MEXRIS_OTOY", "", "", "", "", "", "", "", "", "", ""], correct: "Μέχρις_ότου" }</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C47,""", """,D47,""", """,E47,""", """,F47,""", """,G47,""", """,H47,""", """,I47,""", """,J47,""", """,K47,""", """,L47,""", """,M47,""", """,N47,""", """,O47,""", """,P47,""", """,Q47,""", """,R47,""", """,S47,""", """,T47,""", """,U47,""", """,V47,""", """,W47,"""]",", correct: """,B47,""" }")</f>
+        <v>{variations: ["οσο", "όσο", "Οσο", "Όσο", "ΟΣΟ", "oso", ";oso", "Oso", ";Oso", "OSO", "", "", "", "", "", "", "", "", "", "", ""], correct: "Όσο" }</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="7"/>
+    </row>
+    <row r="48" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C48,""", """,D48,""", """,E48,""", """,F48,""", """,G48,""", """,H48,""", """,I48,""", """,J48,""", """,K48,""", """,L48,""", """,M48,""", """,N48,""", """,O48,""", """,P48,""", """,Q48,""", """,R48,""", """,S48,""", """,T48,""", """,U48,""", """,V48,""", """,W48,"""]",", correct: """,B48,""" }")</f>
+        <v>{variations: ["τελος", "τέλος", "Τελος", "ΤΕΛΟς", "telow", "t;elow", "Telow", "T;elow", "TELOW", "telos", "TELOS", "τελοσ", "τέλοσ", "Τελοσ", "ΤΕΛΟΣ", "t;elos", "Telos", "T;elos", "", "", ""], correct: "Τέλος " }</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L48" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="U48" s="5"/>
+      <c r="V48" s="7"/>
+    </row>
+    <row r="49" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C49,""", """,D49,""", """,E49,""", """,F49,""", """,G49,""", """,H49,""", """,I49,""", """,J49,""", """,K49,""", """,L49,""", """,M49,""", """,N49,""", """,O49,""", """,P49,""", """,Q49,""", """,R49,""", """,S49,""", """,T49,""", """,U49,""", """,V49,""", """,W49,"""]",", correct: """,B49,""" }")</f>
+        <v>{variations: ["τελος_αν", "Τελος_αν", "ΤΕΛΟς_ΑΝ", "telow_an", "t;elow_an", "Telow_an", "T;elow_an", "TELOW_AN", "telos_an", "TELOS_AN", "τελοσ_αν", "Τελοσ_αν", "Τέλοσ_αν", "ΤΕΛΟΣ_ΑΝ", "t;elos_an", "Telos_an", "T;elos_an", "", "", "", ""], correct: "Τέλος_αν" }</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="N49" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="O49" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="P49" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q49" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="R49" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="S49" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C50,""", """,D50,""", """,E50,""", """,F50,""", """,G50,""", """,H50,""", """,I50,""", """,J50,""", """,K50,""", """,L50,""", """,M50,""", """,N50,""", """,O50,""", """,P50,""", """,Q50,""", """,R50,""", """,S50,""", """,T50,""", """,U50,""", """,V50,""", """,W50,"""]",", correct: """,B50,""" }")</f>
+        <v>{variations: ["τελος_επαναληψης", "τέλος_επανάληψης", "Τελος_επαναληψης", "ΤΕΛΟς_ΕΠΑΝΑΛΗΨΗς", "telow_epanalhchw", "t;elow_epan;alhchw", "Telow_epanalhchw", "T;elow_epan;alhchw", "TELOW_EPANALHCHW", "telos_epanalhpshs", "TELOS_EPANALHPSHS", "τελοσ_επαναληψησ", "τέλοσ_επανάληψησ", "Τελοσ_επαναληψησ", "ΤΕΛΟΣ_ΕΠΑΝΑΛΗΨΗΣ", "telos_epanalhchs", "t;elos_epan;alhchs", "Telos_epanalhchs", "T;elos_epan;alhchs", "TELOS_EPANALHCHS", ""], correct: "Τέλος_επανάληψης" }</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L50" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M50" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="N50" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="O50" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="P50" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q50" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="R50" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="S50" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="T50" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="U50" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="V50" s="24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C51,""", """,D51,""", """,E51,""", """,F51,""", """,G51,""", """,H51,""", """,I51,""", """,J51,""", """,K51,""", """,L51,""", """,M51,""", """,N51,""", """,O51,""", """,P51,""", """,Q51,""", """,R51,""", """,S51,""", """,T51,""", """,U51,""", """,V51,""", """,W51,"""]",", correct: """,B51,""" }")</f>
+        <v>{variations: ["τοτε", "Τοτε", "Τότε", "ΤΟΤΕ", "tote", "t;ote", "Tote", "T;ote", "TOTE", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "τότε" }</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:W51">
+    <sortCondition ref="B30:B51"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B50B5E5-3F48-4DA5-A642-2A60E4989FE6}">
+  <dimension ref="A1:X74"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="7"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="7"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="X12" s="7"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="7"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="7"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="7"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="7"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="S19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="7"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C30,""", """,D30,""", """,E30,""", """,F30,""", """,G30,""", """,H30,""", """,I30,""", """,J30,""", """,K30,""", """,L30,""", """,M30,""", """,N30,""", """,O30,""", """,P30,""", """,Q30,""", """,R30,""", """,S30,""", """,T30,""", """,U30,""", """,V30,""", """,W30,"""]",", correct: """,B30,""" }")</f>
+        <v>{variations: ["αλγοριθμος", "αλγόριθμος", "Αλγοριθμος", "ΑΛΓΟΡΙΘΜΟς", "algoriumow", "alg;oriumow", "Algoriumow", "Alg;oriumow", "ALGORITHMOW", "algorithmos", "ALGORITHMOS", "αλγοριθμοσ", "αλγόριθμοσ", "Αλγοριθμοσ", "Αλγόριθμοσ", "ΑΛΓΟΡΙΘΜΟΣ", "algoriumos", "alg;oriumos", "Algoriumos", "Alg;oriumos", ""], correct: "Αλγόριθμος" }</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C31,""", """,D31,""", """,E31,""", """,F31,""", """,G31,""", """,H31,""", """,I31,""", """,J31,""", """,K31,""", """,L31,""", """,M31,""", """,N31,""", """,O31,""", """,P31,""", """,Q31,""", """,R31,""", """,S31,""", """,T31,""", """,U31,""", """,V31,""", """,W31,"""]",", correct: """,B31,""" }")</f>
+        <v>{variations: ["αλλιως", "Αλλιως", "Αλλιώς", "ΑΛΛΙΩς", "allivw", "alli;vw", "Allivw", "Alli;vw", "ALLIVW", "alliws", "ALLIWS", "αλλιωσ", "Αλλιωσ", "Αλλιώσ", "ΑΛΛΙΩΣ", "allivs", "alli;vs", "Allivs", "Alli;vs", "ALLIVS", ""], correct: "αλλιώς" }</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="P31" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="R31" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="S31" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="T31" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="U31" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="V31" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C32,""", """,D32,""", """,E32,""", """,F32,""", """,G32,""", """,H32,""", """,I32,""", """,J32,""", """,K32,""", """,L32,""", """,M32,""", """,N32,""", """,O32,""", """,P32,""", """,Q32,""", """,R32,""", """,S32,""", """,T32,""", """,U32,""", """,V32,""", """,W32,"""]",", correct: """,B32,""" }")</f>
+        <v>{variations: ["αλλιως_αν", "Αλλιως_αν", "Αλλιώς_αν", "ΑΛΛΙΩς_ΑΝ", "allivw_an", "alli;vw_an", "Allivw_an", "Alli;vw_an", "ALLIVW_AN", "alliws_an", "ALLIWS_AN", "αλλιωσ_αν", "αλλιώσ_αν", "Αλλιωσ_αν", "Αλλιώσ_αν", "ΑΛΛΙΩΣ_ΑΝ", "allivs_an", "alli;vs_an", "Allivs_an", "Alli;vs_an", "ALLIVS_AN"], correct: "αλλιώς_αν" }</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="S32" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="T32" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="U32" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="V32" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="W32" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C33,""", """,D33,""", """,E33,""", """,F33,""", """,G33,""", """,H33,""", """,I33,""", """,J33,""", """,K33,""", """,L33,""", """,M33,""", """,N33,""", """,O33,""", """,P33,""", """,Q33,""", """,R33,""", """,S33,""", """,T33,""", """,U33,""", """,V33,""", """,W33,"""]",", correct: """,B33,""" }")</f>
+        <v>{variations: ["αν", "ΑΝ", "an", "An", "AN", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Αν" }</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C34,""", """,D34,""", """,E34,""", """,F34,""", """,G34,""", """,H34,""", """,I34,""", """,J34,""", """,K34,""", """,L34,""", """,M34,""", """,N34,""", """,O34,""", """,P34,""", """,Q34,""", """,R34,""", """,S34,""", """,T34,""", """,U34,""", """,V34,""", """,W34,"""]",", correct: """,B34,""" }")</f>
+        <v>{variations: ["αντιμεταθεσε", "αντιμετάθεσε", "Αντιμεταθεσε", "ΑΝΤΙΜΕΤΑΘΕΣΕ", "antimetauese", "antimet;auese", "Antimetauese", "Antimet;auese", "ANTIMETAUESE", "antimetathese", "ANTIMETATHESE", "", "", "", "", "", "", "", "", "", ""], correct: "Αντιμετάθεσε" }</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C35,""", """,D35,""", """,E35,""", """,F35,""", """,G35,""", """,H35,""", """,I35,""", """,J35,""", """,K35,""", """,L35,""", """,M35,""", """,N35,""", """,O35,""", """,P35,""", """,Q35,""", """,R35,""", """,S35,""", """,T35,""", """,U35,""", """,V35,""", """,W35,"""]",", correct: """,B35,""" }")</f>
+        <v>{variations: ["απο", "Απο", "Από", "ΑΠΟ", "apo", "ap;o", "Apo", "Ap;o", "APO", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "από" }</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C36,""", """,D36,""", """,E36,""", """,F36,""", """,G36,""", """,H36,""", """,I36,""", """,J36,""", """,K36,""", """,L36,""", """,M36,""", """,N36,""", """,O36,""", """,P36,""", """,Q36,""", """,R36,""", """,S36,""", """,T36,""", """,U36,""", """,V36,""", """,W36,"""]",", correct: """,B36,""" }")</f>
+        <v>{variations: ["αποτελεσματα", "αποτελέσματα", "Αποτελεσματα", "ΑΠΟΤΕΛΕΣΜΑΤΑ", "apotelesmata", "apotel;esmata", "Apotelesmata", "Apotel;esmata", "APOTELESMATA", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Αποτελέσματα" }</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C37,""", """,D37,""", """,E37,""", """,F37,""", """,G37,""", """,H37,""", """,I37,""", """,J37,""", """,K37,""", """,L37,""", """,M37,""", """,N37,""", """,O37,""", """,P37,""", """,Q37,""", """,R37,""", """,S37,""", """,T37,""", """,U37,""", """,V37,""", """,W37,"""]",", correct: """,B37,""" }")</f>
+        <v>{variations: ["αρχη_επαναληψης", "αρχή_επανάληψης", "Αρχη_επαναληψης", "ΑΡΧΗ_ΕΠΑΝΑΛΗΨΗς", "arxh_epanalhchw", "arx;h_epan;alhchw", "Arxh_epanalhchw", "Arx;h_epan;alhchw", "ARXH_EPANALHCHW", "arxh_epanalhpshs", "ARXH_EPANALHPSHS", "αρχη_επαναληψησ", "αρχή_επανάληψησ", "Αρχη_επαναληψησ", "ΑΡΧΗ_ΕΠΑΝΑΛΗΨΗΣ", "arxh_epanalhchs", "arx;h_epan;alhchs", "Arxh_epanalhchs", "Arx;h_epan;alhchs", "ARXH_EPANALHCHS", ""], correct: "Αρχή_επανάληψης" }</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L37" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M37" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="R37" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="S37" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="T37" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="U37" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="V37" s="24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C38,""", """,D38,""", """,E38,""", """,F38,""", """,G38,""", """,H38,""", """,I38,""", """,J38,""", """,K38,""", """,L38,""", """,M38,""", """,N38,""", """,O38,""", """,P38,""", """,Q38,""", """,R38,""", """,S38,""", """,T38,""", """,U38,""", """,V38,""", """,W38,"""]",", correct: """,B38,""" }")</f>
+        <v>{variations: ["για", "ΓΙΑ", "gia", "Gia", "GIA", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Για" }</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="7"/>
+    </row>
+    <row r="39" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C39,""", """,D39,""", """,E39,""", """,F39,""", """,G39,""", """,H39,""", """,I39,""", """,J39,""", """,K39,""", """,L39,""", """,M39,""", """,N39,""", """,O39,""", """,P39,""", """,Q39,""", """,R39,""", """,S39,""", """,T39,""", """,U39,""", """,V39,""", """,W39,"""]",", correct: """,B39,""" }")</f>
+        <v>{variations: ["δεδομενα", "δεδομένα", "Δεδομενα", "ΔΕΔΟΜΕΝΑ", "dedomena", "dedom;ena", "Dedomena", "Dedom;ena", "DEDOMENA", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Δεδομένα" }</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="7"/>
+    </row>
+    <row r="40" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C40,""", """,D40,""", """,E40,""", """,F40,""", """,G40,""", """,H40,""", """,I40,""", """,J40,""", """,K40,""", """,L40,""", """,M40,""", """,N40,""", """,O40,""", """,P40,""", """,Q40,""", """,R40,""", """,S40,""", """,T40,""", """,U40,""", """,V40,""", """,W40,"""]",", correct: """,B40,""" }")</f>
+        <v>{variations: ["διαβασε", "διάβασε", "Διαβασε", "ΔΙΑΒΑΣΕ", "diabase", "di;abase", "Diabase", "Di;abase", "DIABASE", "diavase", "DIAVASE", "", "", "", "", "", "", "", "", "", ""], correct: "Διάβασε" }</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C41,""", """,D41,""", """,E41,""", """,F41,""", """,G41,""", """,H41,""", """,I41,""", """,J41,""", """,K41,""", """,L41,""", """,M41,""", """,N41,""", """,O41,""", """,P41,""", """,Q41,""", """,R41,""", """,S41,""", """,T41,""", """,U41,""", """,V41,""", """,W41,"""]",", correct: """,B41,""" }")</f>
+        <v>{variations: ["εκτυπωσε", "εκτύπωσε", "Εκτυπωσε", "ΕΚΤΥΠΩΣΕ", "ektypvse", "ekt;ypvse", "Ektypvse", "Ekt;ypvse", "EKTYPVSE", "ektypwse", "EKTYPWSE", "", "", "", "", "", "", "", "", "", ""], correct: "Εκτύπωσε" }</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L41" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="M41" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C42,""", """,D42,""", """,E42,""", """,F42,""", """,G42,""", """,H42,""", """,I42,""", """,J42,""", """,K42,""", """,L42,""", """,M42,""", """,N42,""", """,O42,""", """,P42,""", """,Q42,""", """,R42,""", """,S42,""", """,T42,""", """,U42,""", """,V42,""", """,W42,"""]",", correct: """,B42,""" }")</f>
+        <v>{variations: ["εμφανισε", "εμφάνισε", "Εμφανισε", "ΕΜΦΑΝΙΣΕ", "emfanise", "emf;anise", "Emfanise", "Emf;anise", "EMFANISE", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Εμφάνισε" }</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C43,""", """,D43,""", """,E43,""", """,F43,""", """,G43,""", """,H43,""", """,I43,""", """,J43,""", """,K43,""", """,L43,""", """,M43,""", """,N43,""", """,O43,""", """,P43,""", """,Q43,""", """,R43,""", """,S43,""", """,T43,""", """,U43,""", """,V43,""", """,W43,"""]",", correct: """,B43,""" }")</f>
+        <v>{variations: ["επαναλαβε", "Επαναλαβε", "Επανάλαβε", "ΕΠΑΝΑΛΑΒΕ", "epanalabe", "epan;alabe", "Epanalabe", "Epan;alabe", "EPANALABE", "epanalave", "EPANALAVE", "", "", "", "", "", "", "", "", "", ""], correct: "επανάλαβε" }</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L43" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M43" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C44,""", """,D44,""", """,E44,""", """,F44,""", """,G44,""", """,H44,""", """,I44,""", """,J44,""", """,K44,""", """,L44,""", """,M44,""", """,N44,""", """,O44,""", """,P44,""", """,Q44,""", """,R44,""", """,S44,""", """,T44,""", """,U44,""", """,V44,""", """,W44,"""]",", correct: """,B44,""" }")</f>
+        <v>{variations: ["με_βημα", "Με_βημα", "Με_βήμα", "ΜΕ_ΒΗΜΑ", "me_bhma", "me_b;hma", "Me_bhma", "Me_b;hma", "ME_BHMA", "me_vhma", "ME_VHMA", "", "", "", "", "", "", "", "", "", ""], correct: "με_βήμα" }</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C45,""", """,D45,""", """,E45,""", """,F45,""", """,G45,""", """,H45,""", """,I45,""", """,J45,""", """,K45,""", """,L45,""", """,M45,""", """,N45,""", """,O45,""", """,P45,""", """,Q45,""", """,R45,""", """,S45,""", """,T45,""", """,U45,""", """,V45,""", """,W45,"""]",", correct: """,B45,""" }")</f>
+        <v>{variations: ["μεχρι", "Μεχρι", "Μέχρι", "ΜΕΧΡΙ", "mexri", "m;exri", "Mexri", "M;exri", "MEXRI", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "μέχρι" }</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C46,""", """,D46,""", """,E46,""", """,F46,""", """,G46,""", """,H46,""", """,I46,""", """,J46,""", """,K46,""", """,L46,""", """,M46,""", """,N46,""", """,O46,""", """,P46,""", """,Q46,""", """,R46,""", """,S46,""", """,T46,""", """,U46,""", """,V46,""", """,W46,"""]",", correct: """,B46,""" }")</f>
+        <v>{variations: ["μεχρις_οτου", "μέχρις_ότου", "Μεχρις_οτου", "ΜΕΧΡΙς_ΟΤΟΥ", "mexriw_otoy", "m;exriw_;otoy", "Mexriw_otoy", "M;exriw_;otoy", "MEXRIW_OTOY", "mexris_otoy", "MEXRIS_OTOY", "", "", "", "", "", "", "", "", "", ""], correct: "Μέχρις_ότου" }</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C47,""", """,D47,""", """,E47,""", """,F47,""", """,G47,""", """,H47,""", """,I47,""", """,J47,""", """,K47,""", """,L47,""", """,M47,""", """,N47,""", """,O47,""", """,P47,""", """,Q47,""", """,R47,""", """,S47,""", """,T47,""", """,U47,""", """,V47,""", """,W47,"""]",", correct: """,B47,""" }")</f>
+        <v>{variations: ["οσο", "όσο", "Οσο", "Όσο", "ΟΣΟ", "oso", ";oso", "Oso", ";Oso", "OSO", "", "", "", "", "", "", "", "", "", "", ""], correct: "Όσο" }</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="7"/>
+    </row>
+    <row r="48" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C48,""", """,D48,""", """,E48,""", """,F48,""", """,G48,""", """,H48,""", """,I48,""", """,J48,""", """,K48,""", """,L48,""", """,M48,""", """,N48,""", """,O48,""", """,P48,""", """,Q48,""", """,R48,""", """,S48,""", """,T48,""", """,U48,""", """,V48,""", """,W48,"""]",", correct: """,B48,""" }")</f>
+        <v>{variations: ["τελος", "τέλος", "Τελος", "ΤΕΛΟς", "telow", "t;elow", "Telow", "T;elow", "TELOW", "telos", "TELOS", "τελοσ", "τέλοσ", "Τελοσ", "ΤΕΛΟΣ", "t;elos", "Telos", "T;elos", "", "", ""], correct: "Τέλος " }</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L48" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="U48" s="5"/>
+      <c r="V48" s="7"/>
+    </row>
+    <row r="49" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C49,""", """,D49,""", """,E49,""", """,F49,""", """,G49,""", """,H49,""", """,I49,""", """,J49,""", """,K49,""", """,L49,""", """,M49,""", """,N49,""", """,O49,""", """,P49,""", """,Q49,""", """,R49,""", """,S49,""", """,T49,""", """,U49,""", """,V49,""", """,W49,"""]",", correct: """,B49,""" }")</f>
+        <v>{variations: ["τελος_αν", "Τελος_αν", "ΤΕΛΟς_ΑΝ", "telow_an", "t;elow_an", "Telow_an", "T;elow_an", "TELOW_AN", "telos_an", "TELOS_AN", "τελοσ_αν", "Τελοσ_αν", "Τέλοσ_αν", "ΤΕΛΟΣ_ΑΝ", "t;elos_an", "Telos_an", "T;elos_an", "", "", "", ""], correct: "Τέλος_αν" }</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="N49" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="O49" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="P49" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q49" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="R49" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="S49" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C50,""", """,D50,""", """,E50,""", """,F50,""", """,G50,""", """,H50,""", """,I50,""", """,J50,""", """,K50,""", """,L50,""", """,M50,""", """,N50,""", """,O50,""", """,P50,""", """,Q50,""", """,R50,""", """,S50,""", """,T50,""", """,U50,""", """,V50,""", """,W50,"""]",", correct: """,B50,""" }")</f>
+        <v>{variations: ["τελος_επαναληψης", "τέλος_επανάληψης", "Τελος_επαναληψης", "ΤΕΛΟς_ΕΠΑΝΑΛΗΨΗς", "telow_epanalhchw", "t;elow_epan;alhchw", "Telow_epanalhchw", "T;elow_epan;alhchw", "TELOW_EPANALHCHW", "telos_epanalhpshs", "TELOS_EPANALHPSHS", "τελοσ_επαναληψησ", "τέλοσ_επανάληψησ", "Τελοσ_επαναληψησ", "ΤΕΛΟΣ_ΕΠΑΝΑΛΗΨΗΣ", "telos_epanalhchs", "t;elos_epan;alhchs", "Telos_epanalhchs", "T;elos_epan;alhchs", "TELOS_EPANALHCHS", ""], correct: "Τέλος_επανάληψης" }</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L50" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M50" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="N50" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="O50" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="P50" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q50" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="R50" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="S50" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="T50" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="U50" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="V50" s="24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="str">
+        <f>CONCATENATE("{variations: [""",C51,""", """,D51,""", """,E51,""", """,F51,""", """,G51,""", """,H51,""", """,I51,""", """,J51,""", """,K51,""", """,L51,""", """,M51,""", """,N51,""", """,O51,""", """,P51,""", """,Q51,""", """,R51,""", """,S51,""", """,T51,""", """,U51,""", """,V51,""", """,W51,"""]",", correct: """,B51,""" }")</f>
+        <v>{variations: ["τοτε", "Τοτε", "Τότε", "ΤΟΤΕ", "tote", "t;ote", "Tote", "T;ote", "TOTE", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "τότε" }</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AUTOCORRECT.xlsx
+++ b/AUTOCORRECT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filo\Desktop\PMS_ERGASIES\DIPLOMATIKH\glossa_aepp_web_interpreter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Diplomatiki\glossa_aepp_web_interpreter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512B95AD-89D5-4E38-B774-0EF5795B6237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB24818-884D-484F-BA6E-1118CE7D06F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{CCB591B9-2B09-45C9-9B3D-CA893BBB8B5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCB591B9-2B09-45C9-9B3D-CA893BBB8B5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="540">
   <si>
     <t>Αλγόριθμος</t>
   </si>
@@ -1665,6 +1665,231 @@
   </si>
   <si>
     <t>telow_synarthshw</t>
+  </si>
+  <si>
+    <t>ΌΛΑ ΚΕΦΑΛΑΙΑ χωρις ':'</t>
+  </si>
+  <si>
+    <t>πρόγραμμα</t>
+  </si>
+  <si>
+    <t>σταθερές</t>
+  </si>
+  <si>
+    <t>μεταβλητές</t>
+  </si>
+  <si>
+    <t>ακέραιες</t>
+  </si>
+  <si>
+    <t>πραγματικές</t>
+  </si>
+  <si>
+    <t>χαρακτήρες</t>
+  </si>
+  <si>
+    <t>λογικές</t>
+  </si>
+  <si>
+    <t>αρχή</t>
+  </si>
+  <si>
+    <t>γράψε</t>
+  </si>
+  <si>
+    <t>τέλος_αν</t>
+  </si>
+  <si>
+    <t>κάλεσε</t>
+  </si>
+  <si>
+    <t>τέλος_προγράμματος</t>
+  </si>
+  <si>
+    <t>διαδικασία</t>
+  </si>
+  <si>
+    <t>τέλος_διαδικασίας</t>
+  </si>
+  <si>
+    <t>συνάρτηση</t>
+  </si>
+  <si>
+    <t>ακέραια</t>
+  </si>
+  <si>
+    <t>πραγματική</t>
+  </si>
+  <si>
+    <t>χαρακτήρας</t>
+  </si>
+  <si>
+    <t>λογική</t>
+  </si>
+  <si>
+    <t>τέλος_συνάρτησης</t>
+  </si>
+  <si>
+    <t>ακεραιες</t>
+  </si>
+  <si>
+    <t>πραγματικες</t>
+  </si>
+  <si>
+    <t>χαρακτηρες</t>
+  </si>
+  <si>
+    <t>λογικες</t>
+  </si>
+  <si>
+    <t>ΑΚΕΡΑΙΕΣ</t>
+  </si>
+  <si>
+    <t>ΠΡΑΓΜΑΤΙΚΕΣ</t>
+  </si>
+  <si>
+    <t>ΧΑΡΑΚΤΗΡΕΣ</t>
+  </si>
+  <si>
+    <t>ΛΟΓΙΚΕΣ</t>
+  </si>
+  <si>
+    <t>1ο μικρο μετα μικρα με ':'</t>
+  </si>
+  <si>
+    <t>ΑΚΕΡΑΙΑ</t>
+  </si>
+  <si>
+    <t>ΠΡΑΓΜΑΤΙΚΗ</t>
+  </si>
+  <si>
+    <t>ΧΑΡΑΚΤΗΡΑΣ</t>
+  </si>
+  <si>
+    <t>ΛΟΓΙΚΗ</t>
+  </si>
+  <si>
+    <t>ακεραια</t>
+  </si>
+  <si>
+    <t>πραγματικη</t>
+  </si>
+  <si>
+    <t>χαρακτηρας</t>
+  </si>
+  <si>
+    <t>λογικη</t>
+  </si>
+  <si>
+    <t>{variations: ["προγραμμα", "πρόγραμμα", "programma", "PROGRAMMA", "programma", "PROGRAMMA"], correct: "ΠΡΟΓΡΑΜΜΑ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["σταθερες", "σταθερές", "stauerew", "STAUEREW", "statheres", "STATHERES", "σταθερεσ", "staueres", "STAUERES"], correct: "ΣΤΑΘΕΡΕΣ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["μεταβλητες", "μεταβλητές", "metablhtew", "METABLHTEW", "metablhtes", "METABLHTES", "μεταβλητεσ", "metablhtes", "METABLHTES"], correct: "ΜΕΤΑΒΛΗΤΕΣ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["ακεραιες", "ακέραιες", "ακεραιες:", "ΑΚΕΡΑΙΕΣ", "akeraiew", "AKERAIEW", "akeraies", "AKERAIES", "ακεραιεσ:", "akeraies", "AKERAIES"], correct: "ΑΚΕΡΑΙΕΣ:" }</t>
+  </si>
+  <si>
+    <t>{variations: ["πραγματικες", "πραγματικές", "πραγματικες:", "ΠΡΑΓΜΑΤΙΚΕΣ", "pragmatikew", "PRAGMATIKEW", "pragmatikes", "PRAGMATIKES", "πραγματικεσ:", "pragmatikes", "PRAGMATIKES"], correct: "ΠΡΑΓΜΑΤΙΚΕΣ:" }</t>
+  </si>
+  <si>
+    <t>{variations: ["χαρακτηρες", "χαρακτήρες", "χαρακτηρες:", "ΧΑΡΑΚΤΗΡΕΣ", "xarakthrew", "XARAKTHREW", "xarakthres", "XARAKTHRES", "χαρακτηρεσ:", "xarakthres", "XARAKTHRES"], correct: "ΧΑΡΑΚΤΗΡΕΣ:" }</t>
+  </si>
+  <si>
+    <t>{variations: ["λογικες", "λογικές", "λογικες:", "ΛΟΓΙΚΕΣ", "logikew", "LOGIKEW", "logikes", "LOGIKES", "logikes", "LOGIKES"], correct: "ΛΟΓΙΚΕΣ:" }</t>
+  </si>
+  <si>
+    <t>{variations: ["αρχη", "αρχή", "arxh", "ARXH", "arxh", "ARXH"], correct: "ΑΡΧΗ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["γραψε", "γράψε", "grace", "GRACE", "grapse", "GRAPSE"], correct: "ΓΡΑΨΕ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["διαβασε", "διάβασε", "diabase", "DIABASE", "diabase", "DIABASE"], correct: "ΔΙΑΒΑΣΕ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["αν", "an", "AN", "an", "AN"], correct: "ΑΝ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["τοτε", "τότε", "tote", "TOTE", "tote", "TOTE"], correct: "ΤΟΤΕ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["αλλιως_αν", "αλλιώς_αν", "allivw_an", "ALLIVW_AN", "alliws_an", "ALLIWS_AN", "αλλιωσ_αν", "allivs_an", "ALLIVS_AN"], correct: "ΑΛΛΙΩΣ_ΑΝ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["αλλιως", "αλλιώς", "allivw", "ALLIVW", "alliws", "ALLIWS", "αλλιωσ", "allivs", "ALLIVS"], correct: "ΑΛΛΙΩΣ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["τελος_αν", "τέλος_αν", "telow_an", "TELOW_AN", "telos_an", "TELOS_AN", "τελοσ_αν", "telos_an", "TELOS_AN"], correct: "ΤΕΛΟΣ_ΑΝ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["για", "gia", "GIA", "gia", "GIA"], correct: "ΓΙΑ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["απο", "apo", "APO", "apo", "APO"], correct: "ΑΠΟ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["μεχρι", "μέχρι", "mexri", "MEXRI", "mexri", "MEXRI"], correct: "ΜΕΧΡΙ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["με_βημα", "με_βήμα", "me_bhma", "ME_BHMA", "me_bhma", "ME_BHMA"], correct: "ΜΕ_ΒΗΜΑ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["αρχη_επαναληψης", "αρχή_επανάληψης", "arxh_epanalhchw", "ARXH_EPANALHCHW", "arxh_epanalhpshs", "ARXH_EPANALHPSHS", "αρχη_επαναληψησ", "arxh_epanalhchs", "ARXH_EPANALHCHS"], correct: "ΑΡΧΗ_ΕΠΑΝΑΛΗΨΗΣ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["οσο", "όσο", "oso", "OSO", "oso", "OSO"], correct: "ΟΣΟ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["επαναλαβε", "επανάλαβε", "epanalabe", "EPANALABE", "epanalabe", "EPANALABE"], correct: "ΕΠΑΝΑΛΑΒΕ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["τελος_επαναληψης", "τέλος_επανάληψης", "telow_epanalhchw", "TELOW_EPANALHCHW", "telos_epanalhpshs", "TELOS_EPANALHPSHS", "τελοσ_επαναληψησ", "telos_epanalhchs", "TELOS_EPANALHCHS"], correct: "ΤΕΛΟΣ_ΕΠΑΝΑΛΗΨΗΣ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["μεχρις_οτου", "μέχρις_ότου", "mexriw_otoy", "MEXRIW_OTOY", "mexris_otoy", "MEXRIS_OTOY", "μεχρισ_οτου", "mexris_otoy", "MEXRIS_OTOY"], correct: "ΜΕΧΡΙΣ_ΟΤΟΥ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["καλεσε", "κάλεσε", "kalewe", "KALEWE", "kalese", "KALESE"], correct: "ΚΑΛΕΣΕ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["τελος_προγραμματος", "τέλος_προγράμματος", "telow_programmatow", "TELOW_PROGRAMMATOW", "telos_programmatos", "TELOS_PROGRAMMATOS", "τελοσ_προγραμματοσ", "telos_programmatos", "TELOS_PROGRAMMATOS"], correct: "ΤΕΛΟΣ_ΠΡΟΓΡΑΜΜΑΤΟΣ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["διαδικασια", "διαδικασία", "diadikasia", "DIADIKASIA", "diadikasia", "DIADIKASIA"], correct: "ΔΙΑΔΙΚΑΣΙΑ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["τελος_διαδικασιας", "τέλος_διαδικασίας", "telow_diadikasiaw", "TELOW_DIADIKASIAW", "telos_diadikasias", "TELOS_DIADIKASIAS", "τελοσ_διαδικασιασ", "telos_diadikasias", "TELOS_DIADIKASIAS"], correct: "ΤΕΛΟΣ_ΔΙΑΔΙΚΑΣΙΑΣ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["συναρτηση", "συνάρτηση", "synarthsh", "SYNARTHSH", "synarthsh", "SYNARTHSH"], correct: "ΣΥΝΑΡΤΗΣΗ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["ακεραια", "ακέραια", ":ακεραια", "ΑΚΕΡΑΙΑ", "akeraia", "AKERAIA", "akeraia", "AKERAIA"], correct: ":ΑΚΕΡΑΙΑ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["πραγματικη", "πραγματική", ":πραγματικη", "ΠΡΑΓΜΑΤΙΚΗ", "pragmatikh", "PRAGMATIKH", "pragmatikh", "PRAGMATIKH"], correct: ":ΠΡΑΓΜΑΤΙΚΗ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["χαρακτηρας", "χαρακτήρας", ":χαρακτηρας", "ΧΑΡΑΚΤΗΡΑΣ", "xarakthraw", "XARAKTHRAW", "xarakthras", "XARAKTHRAS", ":χαρακτηρασ", "xarakthras", "XARAKTHRAS"], correct: ":ΧΑΡΑΚΤΗΡΑΣ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["λογικη", "λογική", ":λογικη", "ΛΟΓΙΚΗ", "logikh", "LOGIKH", "logikh", "LOGIKH"], correct: ":ΛΟΓΙΚΗ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["τελος_συναρτησης", "τέλος_συνάρτησης", "telow_synarthshw", "TELOW_SYNARTHSHW", "telos_synarthshs", "TELOS_SYNARTHSHS", "τελοσ_συναρτησησ", "telos_synarthshs", "TELOS_SYNARTHSHS"], correct: "ΤΕΛΟΣ_ΣΥΝΑΡΤΗΣΗΣ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["η", "h", "H", "h", "H"], correct: "Η" }</t>
+  </si>
+  <si>
+    <t>{variations: ["και", "kai", "KAI", "kai", "KAI"], correct: "ΚΑΙ" }</t>
+  </si>
+  <si>
+    <t>{variations: ["οχι", "όχι", "oxi", ";oxi", "OXI", "oxi", "OXI"], correct: "ΌΧΙ" }</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2029,24 +2254,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2096,9 +2303,32 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2114,7 +2344,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2433,8 +2663,8 @@
   <dimension ref="A1:AP48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I11" sqref="I11"/>
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,1370 +2709,1370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="U2" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="X2" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="35" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28" t="s">
+      <c r="T3" s="22"/>
+      <c r="U3" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="V3" s="28" t="s">
+      <c r="V3" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="W3" s="28" t="s">
+      <c r="W3" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28" t="s">
+      <c r="O4" s="22"/>
+      <c r="P4" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Q4" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="U4" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="V4" s="28" t="s">
+      <c r="V4" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="W4" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="X4" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28" t="s">
+      <c r="M5" s="29"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="R5" s="28" t="s">
+      <c r="R5" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="S5" s="28" t="s">
+      <c r="S5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="28" t="s">
+      <c r="T5" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="O6" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="Q6" s="36" t="s">
+      <c r="Q6" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="T6" s="36" t="s">
+      <c r="T6" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="U6" s="36" t="s">
+      <c r="U6" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="V6" s="36" t="s">
+      <c r="V6" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="W6" s="36" t="s">
+      <c r="W6" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="X6" s="36" t="s">
+      <c r="X6" s="30" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="O7" s="38" t="s">
+      <c r="O7" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" s="38" t="s">
+      <c r="Q7" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="S7" s="38" t="s">
+      <c r="S7" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="T7" s="38" t="s">
+      <c r="T7" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="U7" s="38" t="s">
+      <c r="U7" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="V7" s="38" t="s">
+      <c r="V7" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="W7" s="38" t="s">
+      <c r="W7" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="X7" s="38" t="s">
+      <c r="X7" s="32" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28" t="s">
+      <c r="O8" s="22"/>
+      <c r="P8" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="R8" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="S8" s="28" t="s">
+      <c r="S8" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="T8" s="28" t="s">
+      <c r="T8" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="U8" s="28" t="s">
+      <c r="U8" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="V8" s="28" t="s">
+      <c r="V8" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="W8" s="28" t="s">
+      <c r="W8" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="X8" s="28" t="s">
+      <c r="X8" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="O9" s="28" t="s">
+      <c r="O9" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="P9" s="28" t="s">
+      <c r="P9" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="Q9" s="28" t="s">
+      <c r="Q9" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="R9" s="28" t="s">
+      <c r="R9" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="S9" s="28" t="s">
+      <c r="S9" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="T9" s="28" t="s">
+      <c r="T9" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="U9" s="28" t="s">
+      <c r="U9" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="V9" s="28" t="s">
+      <c r="V9" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="W9" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="X9" s="28" t="s">
+      <c r="X9" s="22" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="M10" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28" t="s">
+      <c r="O10" s="22"/>
+      <c r="P10" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="R10" s="28" t="s">
+      <c r="R10" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="S10" s="28" t="s">
+      <c r="S10" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="T10" s="28" t="s">
+      <c r="T10" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="U10" s="28" t="s">
+      <c r="U10" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="V10" s="28" t="s">
+      <c r="V10" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="W10" s="28" t="s">
+      <c r="W10" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="X10" s="28" t="s">
+      <c r="X10" s="22" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="N11" s="36" t="s">
+      <c r="N11" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="O11" s="36" t="s">
+      <c r="O11" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="P11" s="36" t="s">
+      <c r="P11" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="Q11" s="36" t="s">
+      <c r="Q11" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="R11" s="36" t="s">
+      <c r="R11" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="S11" s="36" t="s">
+      <c r="S11" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="T11" s="36" t="s">
+      <c r="T11" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="U11" s="36" t="s">
+      <c r="U11" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="V11" s="36" t="s">
+      <c r="V11" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="W11" s="36" t="s">
+      <c r="W11" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="X11" s="36" t="s">
+      <c r="X11" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="M12" s="40" t="s">
+      <c r="M12" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38" t="s">
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38" t="s">
+      <c r="S12" s="32"/>
+      <c r="T12" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="U12" s="38" t="s">
+      <c r="U12" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="V12" s="38" t="s">
+      <c r="V12" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="W12" s="38" t="s">
+      <c r="W12" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="X12" s="38"/>
+      <c r="X12" s="32"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36" t="s">
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="N13" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36" t="s">
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36" t="s">
+      <c r="S13" s="30"/>
+      <c r="T13" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="U13" s="36" t="s">
+      <c r="U13" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="V13" s="36" t="s">
+      <c r="V13" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="W13" s="36" t="s">
+      <c r="W13" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="X13" s="36"/>
+      <c r="X13" s="30"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="N14" s="38" t="s">
+      <c r="N14" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38" t="s">
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="V14" s="38" t="s">
+      <c r="V14" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="M15" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28" t="s">
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="V15" s="28" t="s">
+      <c r="V15" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M16" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28" t="s">
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="V16" s="28" t="s">
+      <c r="V16" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="28" t="s">
+      <c r="M17" s="29"/>
+      <c r="N17" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
     </row>
     <row r="18" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="N18" s="36" t="s">
+      <c r="N18" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36" t="s">
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="V18" s="36" t="s">
+      <c r="V18" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
     </row>
     <row r="19" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="L19" s="38" t="s">
+      <c r="L19" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38" t="s">
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="V19" s="38" t="s">
+      <c r="V19" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="M20" s="35" t="s">
+      <c r="M20" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="N20" s="28" t="s">
+      <c r="N20" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28" t="s">
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="V20" s="28" t="s">
+      <c r="V20" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="28" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="M21" s="35" t="s">
+      <c r="M21" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="N21" s="28" t="s">
+      <c r="N21" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28" t="s">
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="V21" s="28" t="s">
+      <c r="V21" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="M22" s="35" t="s">
+      <c r="M22" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="N22" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28" t="s">
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="V22" s="28" t="s">
+      <c r="V22" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
     </row>
     <row r="23" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36" t="s">
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="V23" s="36" t="s">
+      <c r="V23" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
     </row>
     <row r="25" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="L26" s="27" t="s">
+      <c r="L26" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="M26" s="27" t="s">
+      <c r="M26" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="N26" s="27" t="s">
+      <c r="N26" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O26" s="27" t="s">
+      <c r="O26" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="27" t="s">
+      <c r="P26" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="Q26" s="27" t="s">
+      <c r="Q26" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="R26" s="27" t="s">
+      <c r="R26" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="S26" s="27" t="s">
+      <c r="S26" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="T26" s="27" t="s">
+      <c r="T26" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="U26" s="27" t="s">
+      <c r="U26" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="V26" s="27" t="s">
+      <c r="V26" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="W26" s="27" t="s">
+      <c r="W26" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="X26" s="27" t="s">
+      <c r="X26" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="Y26" s="27" t="s">
+      <c r="Y26" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="Z26" s="27" t="s">
+      <c r="Z26" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="AA26" s="27" t="s">
+      <c r="AA26" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="AB26" s="27" t="s">
+      <c r="AB26" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="AC26" s="27" t="s">
+      <c r="AC26" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="AD26" s="27" t="s">
+      <c r="AD26" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="AE26" s="27" t="s">
+      <c r="AE26" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="AF26" s="27" t="s">
+      <c r="AF26" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="AG26" s="27" t="s">
+      <c r="AG26" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="AH26" s="27" t="s">
+      <c r="AH26" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="AI26" s="27" t="s">
+      <c r="AI26" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="AJ26" s="27" t="s">
+      <c r="AJ26" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="AK26" s="27" t="s">
+      <c r="AK26" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="AL26" s="27" t="s">
+      <c r="AL26" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="AM26" s="27" t="s">
+      <c r="AM26" s="21" t="s">
         <v>349</v>
       </c>
       <c r="AN26" s="19"/>
@@ -3850,1441 +4080,1535 @@
       <c r="AP26" s="18"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="S27" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="T27" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="U27" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="V27" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="W27" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="X27" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y27" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA27" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB27" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC27" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="AD27" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE27" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF27" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG27" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="AH27" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="AI27" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="AJ27" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK27" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="AL27" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="AM27" s="22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="P28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="U28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="W28" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="X28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y28" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z28" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA28" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB28" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC28" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD28" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE28" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="AF28" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="AG28" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="AH28" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="AI28" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="AJ28" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G30" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H30" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I30" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="J27" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="M27" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="N27" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="O27" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P27" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q27" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="R27" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="S27" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="T27" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="U27" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="V27" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="W27" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="X27" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y27" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z27" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA27" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB27" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC27" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="AD27" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE27" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="AF27" s="28" t="s">
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="AG27" s="28" t="s">
+      <c r="AG30" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="AH27" s="28" t="s">
+      <c r="AH30" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="AI27" s="28" t="s">
+      <c r="AI30" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="AJ27" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK27" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="AL27" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="AM27" s="28" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="28" t="s">
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="22"/>
+    </row>
+    <row r="31" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
+      <c r="B31" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="AG31" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="AH31" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="AI31" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="P32" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="R32" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="T32" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="U32" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="V32" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="W32" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="X32" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y32" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z32" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA32" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB32" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC32" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD32" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE32" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF32" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG32" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="AH32" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="AI32" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="AJ32" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="AK32" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL32" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="AM32" s="22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="28" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="28" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="22"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AK29" s="28"/>
-      <c r="AL29" s="28"/>
-      <c r="AM29" s="28"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="28" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="22"/>
+      <c r="AK34" s="22"/>
+      <c r="AL34" s="22"/>
+      <c r="AM34" s="22"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
-      <c r="AK30" s="28"/>
-      <c r="AL30" s="28"/>
-      <c r="AM30" s="28"/>
-    </row>
-    <row r="31" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="36" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="22"/>
+      <c r="AK35" s="22"/>
+      <c r="AL35" s="22"/>
+      <c r="AM35" s="22"/>
+    </row>
+    <row r="36" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39"/>
+      <c r="B36" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="28"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="28" t="s">
+      <c r="C36" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="P36" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q36" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="R36" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="S36" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="T36" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="U36" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="V36" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="W36" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="X36" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y36" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z36" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA36" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB36" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC36" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD36" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE36" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="AF36" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG36" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="AH36" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="AI36" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ36" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK36" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="AL36" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM36" s="23" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="J32" s="28" t="s">
+      <c r="D37" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="J37" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="K32" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="L32" s="28" t="s">
+      <c r="K37" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="L37" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="M32" s="28" t="s">
+      <c r="M37" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="N32" s="28" t="s">
+      <c r="N37" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="O32" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="P32" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q32" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="R32" s="28" t="s">
+      <c r="O37" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="P37" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q37" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="R37" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="S32" s="28" t="s">
+      <c r="S37" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="T32" s="28" t="s">
+      <c r="T37" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="U32" s="28" t="s">
+      <c r="U37" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="V32" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="W32" s="28" t="s">
+      <c r="V37" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="W37" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="X32" s="28" t="s">
+      <c r="X37" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="Y32" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z32" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA32" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB32" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC32" s="28" t="s">
+      <c r="Y37" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z37" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA37" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB37" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC37" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="AD32" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE32" s="28" t="s">
+      <c r="AD37" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="AE37" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="AF32" s="28" t="s">
+      <c r="AF37" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="AG32" s="28" t="s">
+      <c r="AG37" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="AH32" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI32" s="28" t="s">
+      <c r="AH37" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="AI37" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="AJ32" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="AK32" s="28" t="s">
+      <c r="AJ37" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="AK37" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="AL32" s="28" t="s">
+      <c r="AL37" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="AM32" s="28" t="s">
+      <c r="AM37" s="22" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
-      <c r="AK33" s="28"/>
-      <c r="AL33" s="28"/>
-      <c r="AM33" s="28" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
-      <c r="AK35" s="28"/>
-      <c r="AL35" s="28"/>
-      <c r="AM35" s="28"/>
-    </row>
-    <row r="36" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="36" t="s">
+    <row r="38" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C38" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="J36" s="29" t="s">
+      <c r="D38" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="J38" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="K36" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="L36" s="29" t="s">
+      <c r="K38" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="L38" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="M36" s="29" t="s">
+      <c r="M38" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="N36" s="29" t="s">
+      <c r="N38" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="O36" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="P36" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q36" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="R36" s="29" t="s">
+      <c r="O38" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="P38" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q38" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="R38" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="S36" s="29" t="s">
+      <c r="S38" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="T36" s="29" t="s">
+      <c r="T38" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="U36" s="29" t="s">
+      <c r="U38" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="V36" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="W36" s="29" t="s">
+      <c r="V38" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="W38" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="X36" s="28" t="s">
+      <c r="X38" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="Y36" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z36" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA36" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="AB36" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="AC36" s="29" t="s">
+      <c r="Y38" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z38" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA38" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB38" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC38" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="AD36" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE36" s="29" t="s">
+      <c r="AD38" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE38" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="AF36" s="29" t="s">
+      <c r="AF38" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="AG36" s="29" t="s">
+      <c r="AG38" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="AH36" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="AI36" s="29" t="s">
+      <c r="AH38" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="AI38" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="AJ36" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="AK36" s="29" t="s">
+      <c r="AJ38" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="AK38" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="AL36" s="29" t="s">
+      <c r="AL38" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="AM36" s="29" t="s">
+      <c r="AM38" s="23" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="E37" s="28" t="s">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="P39" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q39" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z39" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="22"/>
+      <c r="AM39" s="22"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
+      <c r="AK40" s="22"/>
+      <c r="AL40" s="22"/>
+      <c r="AM40" s="22"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="22"/>
+      <c r="AH41" s="22"/>
+      <c r="AI41" s="22"/>
+      <c r="AJ41" s="22"/>
+      <c r="AK41" s="22"/>
+      <c r="AL41" s="22"/>
+      <c r="AM41" s="22"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+      <c r="AL42" s="22"/>
+      <c r="AM42" s="22"/>
+    </row>
+    <row r="43" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="42"/>
+      <c r="B43" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="22"/>
+      <c r="AI43" s="22"/>
+      <c r="AJ43" s="22"/>
+      <c r="AK43" s="22"/>
+      <c r="AL43" s="22"/>
+      <c r="AM43" s="22"/>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F44" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G44" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H44" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="I44" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="J37" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="K37" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="L37" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="M37" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="N37" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="O37" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="P37" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q37" s="28" t="s">
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="P44" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q44" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="R37" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="S37" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="T37" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="U37" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="V37" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="W37" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="X37" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y37" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z37" s="28" t="s">
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z44" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="AA37" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB37" s="28" t="s">
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="AC37" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD37" s="28" t="s">
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="AE37" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="AF37" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="AG37" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="AH37" s="28" t="s">
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
+      <c r="AG44" s="22"/>
+      <c r="AH44" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="AI37" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="AJ37" s="28" t="s">
+      <c r="AI44" s="22"/>
+      <c r="AJ44" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="AK37" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="AL37" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="AM37" s="28" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="E38" s="29" t="s">
+      <c r="AK44" s="22"/>
+      <c r="AL44" s="22"/>
+      <c r="AM44" s="22"/>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="22"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="22"/>
+      <c r="AH45" s="22"/>
+      <c r="AI45" s="22"/>
+      <c r="AJ45" s="22"/>
+      <c r="AK45" s="22"/>
+      <c r="AL45" s="22"/>
+      <c r="AM45" s="22"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="22"/>
+      <c r="AH46" s="22"/>
+      <c r="AI46" s="22"/>
+      <c r="AJ46" s="22"/>
+      <c r="AK46" s="22"/>
+      <c r="AL46" s="22"/>
+      <c r="AM46" s="22"/>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="22"/>
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22"/>
+      <c r="AM47" s="22"/>
+    </row>
+    <row r="48" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="42"/>
+      <c r="B48" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E48" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F48" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G48" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="H48" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="I38" s="29" t="s">
+      <c r="I48" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="J38" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="K38" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="L38" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="M38" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="N38" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="O38" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="P38" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q38" s="29" t="s">
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="P48" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q48" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="R38" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="S38" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="T38" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="U38" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="V38" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="W38" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="X38" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y38" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z38" s="28" t="s">
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z48" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="AA38" s="29" t="s">
-        <v>448</v>
-      </c>
-      <c r="AB38" s="29" t="s">
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="AC38" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="AD38" s="29" t="s">
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="AE38" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="AF38" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG38" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="AH38" s="29" t="s">
+      <c r="AE48" s="36"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="36"/>
+      <c r="AH48" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="AI38" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="AJ38" s="29" t="s">
+      <c r="AI48" s="36"/>
+      <c r="AJ48" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="AK38" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="AL38" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="AM38" s="29" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>455</v>
-      </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="P39" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q39" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z39" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="28"/>
-      <c r="AG39" s="28"/>
-      <c r="AH39" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="AI39" s="28"/>
-      <c r="AJ39" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="AK39" s="28"/>
-      <c r="AL39" s="28"/>
-      <c r="AM39" s="28"/>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="28"/>
-      <c r="AG40" s="28"/>
-      <c r="AH40" s="28"/>
-      <c r="AI40" s="28"/>
-      <c r="AJ40" s="28"/>
-      <c r="AK40" s="28"/>
-      <c r="AL40" s="28"/>
-      <c r="AM40" s="28"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="28"/>
-      <c r="AJ41" s="28"/>
-      <c r="AK41" s="28"/>
-      <c r="AL41" s="28"/>
-      <c r="AM41" s="28"/>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="28"/>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="28"/>
-      <c r="AK42" s="28"/>
-      <c r="AL42" s="28"/>
-      <c r="AM42" s="28"/>
-    </row>
-    <row r="43" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="28"/>
-      <c r="AG43" s="28"/>
-      <c r="AH43" s="28"/>
-      <c r="AI43" s="28"/>
-      <c r="AJ43" s="28"/>
-      <c r="AK43" s="28"/>
-      <c r="AL43" s="28"/>
-      <c r="AM43" s="28"/>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="P44" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q44" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="Z44" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="AK44" s="28"/>
-      <c r="AL44" s="28"/>
-      <c r="AM44" s="28"/>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28"/>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="28"/>
-      <c r="AG45" s="28"/>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="28"/>
-      <c r="AJ45" s="28"/>
-      <c r="AK45" s="28"/>
-      <c r="AL45" s="28"/>
-      <c r="AM45" s="28"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="28"/>
-      <c r="AG46" s="28"/>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="28"/>
-      <c r="AJ46" s="28"/>
-      <c r="AK46" s="28"/>
-      <c r="AL46" s="28"/>
-      <c r="AM46" s="28"/>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28"/>
-      <c r="AK47" s="28"/>
-      <c r="AL47" s="28"/>
-      <c r="AM47" s="28"/>
-    </row>
-    <row r="48" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>443</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="P48" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q48" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="R48" s="42"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="W48" s="42"/>
-      <c r="X48" s="42"/>
-      <c r="Y48" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z48" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA48" s="42"/>
-      <c r="AB48" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="AC48" s="42"/>
-      <c r="AD48" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="AE48" s="42"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="AI48" s="42"/>
-      <c r="AJ48" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="AK48" s="28"/>
-      <c r="AL48" s="28"/>
-      <c r="AM48" s="28"/>
+      <c r="AK48" s="22"/>
+      <c r="AL48" s="22"/>
+      <c r="AM48" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5294,8 +5618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4677166C-B22D-4310-BA0C-62F71D0D1B5B}">
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7645,10 +7969,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B50B5E5-3F48-4DA5-A642-2A60E4989FE6}">
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A81" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7677,2314 +8001,2610 @@
     <col min="24" max="24" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="6"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B2" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D11" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="E11" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="F11" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="6"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="G11" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="D12" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="6" t="s">
+      <c r="E12" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="6"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="F12" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="E13" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="F13" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="6"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="G13" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="E14" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="F14" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="G14" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="H14" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="I14" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="T10" s="5" t="s">
+      <c r="J14" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="U10" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="X10" s="6" t="s">
+      <c r="K14" s="23" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="E15" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="F15" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="G15" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="H15" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="I15" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="T11" s="5" t="s">
+      <c r="J15" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="U11" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="X11" s="6" t="s">
+      <c r="K15" s="23" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="D16" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="F16" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="G16" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="H16" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="I16" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="X12" s="6"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="J16" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="D17" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="6" t="s">
+      <c r="E17" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="6"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="F17" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="D18" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L14" s="6" t="s">
+      <c r="E18" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="6"/>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="F18" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="E19" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="L15" s="6" t="s">
+      <c r="F19" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="6"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="G19" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="E20" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="F20" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="6"/>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="G20" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D22" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="E22" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="F22" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="6"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+      <c r="G22" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="E23" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="L18" s="6" t="s">
+      <c r="F23" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="6"/>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="G23" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D24" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="E24" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="F24" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="G24" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="H24" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="I24" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="T19" s="5" t="s">
+      <c r="J24" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="U19" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="X19" s="6" t="s">
+      <c r="K24" s="23" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="7" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D25" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="E25" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L21" s="6" t="s">
+      <c r="F25" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="G25" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="H25" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="6"/>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="6"/>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="T23" s="5"/>
-      <c r="U23" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="X23" s="6"/>
-    </row>
-    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="str">
-        <f t="shared" ref="A30:A51" si="0">CONCATENATE("{variations: [""",C30,""", """,D30,""", """,E30,""", """,F30,""", """,G30,""", """,H30,""", """,I30,""", """,J30,""", """,K30,""", """,L30,""", """,M30,""", """,N30,""", """,O30,""", """,P30,""", """,Q30,""", """,R30,""", """,S30,""", """,T30,""", """,U30,""", """,V30,""", """,W30,"""]",", correct: """,B30,""" }")</f>
-        <v>{variations: ["αλγοριθμος", "αλγόριθμος", "Αλγοριθμος", "ΑΛΓΟΡΙΘΜΟς", "algoriumow", "alg;oriumow", "Algoriumow", "Alg;oriumow", "ALGORITHMOW", "algorithmos", "ALGORITHMOS", "αλγοριθμοσ", "αλγόριθμοσ", "Αλγοριθμοσ", "Αλγόριθμοσ", "ΑΛΓΟΡΙΘΜΟΣ", "algoriumos", "alg;oriumos", "Algoriumos", "Alg;oriumos", ""], correct: "Αλγόριθμος" }</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V30" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>{variations: ["αλλιως", "Αλλιως", "Αλλιώς", "ΑΛΛΙΩς", "allivw", "alli;vw", "Allivw", "Alli;vw", "ALLIVW", "alliws", "ALLIWS", "αλλιωσ", "Αλλιωσ", "Αλλιώσ", "ΑΛΛΙΩΣ", "allivs", "alli;vs", "Allivs", "Alli;vs", "ALLIVS", ""], correct: "αλλιώς" }</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="L31" t="s">
-        <v>236</v>
-      </c>
-      <c r="M31" t="s">
-        <v>245</v>
-      </c>
-      <c r="N31" t="s">
-        <v>271</v>
-      </c>
-      <c r="O31" t="s">
-        <v>272</v>
-      </c>
-      <c r="P31" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>122</v>
-      </c>
-      <c r="R31" t="s">
-        <v>292</v>
-      </c>
-      <c r="S31" t="s">
-        <v>293</v>
-      </c>
-      <c r="T31" t="s">
-        <v>295</v>
-      </c>
-      <c r="U31" t="s">
-        <v>297</v>
-      </c>
-      <c r="V31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>{variations: ["αλλιως_αν", "Αλλιως_αν", "Αλλιώς_αν", "ΑΛΛΙΩς_ΑΝ", "allivw_an", "alli;vw_an", "Allivw_an", "Alli;vw_an", "ALLIVW_AN", "alliws_an", "ALLIWS_AN", "αλλιωσ_αν", "αλλιώσ_αν", "Αλλιωσ_αν", "Αλλιώσ_αν", "ΑΛΛΙΩΣ_ΑΝ", "allivs_an", "alli;vs_an", "Allivs_an", "Alli;vs_an", "ALLIVS_AN"], correct: "αλλιώς_αν" }</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="L32" t="s">
-        <v>235</v>
-      </c>
-      <c r="M32" t="s">
-        <v>244</v>
-      </c>
-      <c r="N32" t="s">
-        <v>253</v>
-      </c>
-      <c r="O32" t="s">
-        <v>254</v>
-      </c>
-      <c r="P32" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>255</v>
-      </c>
-      <c r="R32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S32" t="s">
-        <v>139</v>
-      </c>
-      <c r="T32" t="s">
-        <v>155</v>
-      </c>
-      <c r="U32" t="s">
-        <v>168</v>
-      </c>
-      <c r="V32" t="s">
-        <v>199</v>
-      </c>
-      <c r="W32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>{variations: ["αν", "ΑΝ", "an", "An", "AN", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Αν" }</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>{variations: ["αντιμεταθεσε", "αντιμετάθεσε", "Αντιμεταθεσε", "ΑΝΤΙΜΕΤΑΘΕΣΕ", "antimetauese", "antimet;auese", "Antimetauese", "Antimet;auese", "ANTIMETAUESE", "antimetathese", "ANTIMETATHESE", "", "", "", "", "", "", "", "", "", ""], correct: "Αντιμετάθεσε" }</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>{variations: ["απο", "Απο", "Από", "ΑΠΟ", "apo", "ap;o", "Apo", "Ap;o", "APO", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "από" }</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>{variations: ["αποτελεσματα", "αποτελέσματα", "Αποτελεσματα", "ΑΠΟΤΕΛΕΣΜΑΤΑ", "apotelesmata", "apotel;esmata", "Apotelesmata", "Apotel;esmata", "APOTELESMATA", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Αποτελέσματα" }</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H36" t="s">
-        <v>161</v>
-      </c>
-      <c r="I36" t="s">
-        <v>184</v>
-      </c>
-      <c r="J36" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>{variations: ["αρχη_επαναληψης", "αρχή_επανάληψης", "Αρχη_επαναληψης", "ΑΡΧΗ_ΕΠΑΝΑΛΗΨΗς", "arxh_epanalhchw", "arx;h_epan;alhchw", "Arxh_epanalhchw", "Arx;h_epan;alhchw", "ARXH_EPANALHCHW", "arxh_epanalhpshs", "ARXH_EPANALHPSHS", "αρχη_επαναληψησ", "αρχή_επανάληψησ", "Αρχη_επαναληψησ", "ΑΡΧΗ_ΕΠΑΝΑΛΗΨΗΣ", "arxh_epanalhchs", "arx;h_epan;alhchs", "Arxh_epanalhchs", "Arx;h_epan;alhchs", "ARXH_EPANALHCHS", ""], correct: "Αρχή_επανάληψης" }</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="L37" t="s">
-        <v>240</v>
-      </c>
-      <c r="M37" t="s">
-        <v>250</v>
-      </c>
-      <c r="N37" t="s">
-        <v>281</v>
-      </c>
-      <c r="O37" t="s">
-        <v>282</v>
-      </c>
-      <c r="P37" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R37" t="s">
-        <v>301</v>
-      </c>
-      <c r="S37" t="s">
-        <v>303</v>
-      </c>
-      <c r="T37" t="s">
-        <v>306</v>
-      </c>
-      <c r="U37" t="s">
-        <v>309</v>
-      </c>
-      <c r="V37" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>{variations: ["για", "ΓΙΑ", "gia", "Gia", "GIA", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Για" }</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="6"/>
-    </row>
-    <row r="39" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>{variations: ["δεδομενα", "δεδομένα", "Δεδομενα", "ΔΕΔΟΜΕΝΑ", "dedomena", "dedom;ena", "Dedomena", "Dedom;ena", "DEDOMENA", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Δεδομένα" }</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="6"/>
-    </row>
-    <row r="40" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>{variations: ["διαβασε", "διάβασε", "Διαβασε", "ΔΙΑΒΑΣΕ", "diabase", "di;abase", "Diabase", "Di;abase", "DIABASE", "diavase", "DIAVASE", "", "", "", "", "", "", "", "", "", ""], correct: "Διάβασε" }</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>{variations: ["εκτυπωσε", "εκτύπωσε", "Εκτυπωσε", "ΕΚΤΥΠΩΣΕ", "ektypvse", "ekt;ypvse", "Ektypvse", "Ekt;ypvse", "EKTYPVSE", "ektypwse", "EKTYPWSE", "", "", "", "", "", "", "", "", "", ""], correct: "Εκτύπωσε" }</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H41" t="s">
-        <v>151</v>
-      </c>
-      <c r="I41" t="s">
-        <v>163</v>
-      </c>
-      <c r="J41" t="s">
-        <v>195</v>
-      </c>
-      <c r="K41" t="s">
-        <v>213</v>
-      </c>
-      <c r="L41" t="s">
-        <v>232</v>
-      </c>
-      <c r="M41" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B36" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B37" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B38" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>{variations: ["εμφανισε", "εμφάνισε", "Εμφανισε", "ΕΜΦΑΝΙΣΕ", "emfanise", "emf;anise", "Emfanise", "Emf;anise", "EMFANISE", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Εμφάνισε" }</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A42:A78" si="0">CONCATENATE("{variations: [""",C42,""", """,D42,""", """,E42,""", """,F42,""", """,G42,""", """,H42,""", """,I42,""", """,J42,""", """,K42,""", """,L42,""", """,M42,""", """,N42,""", """,O42,""", """,P42,""", """,Q42,""", """,R42,""", """,S42,""", """,T42,""", """,U42,""", """,V42,""", """,W42,"""]",", correct: """,B42,""" }")</f>
+        <v>{variations: ["προγραμμα", "πρόγραμμα", "programma", "PROGRAMMA", "programma", "PROGRAMMA", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΠΡΟΓΡΑΜΜΑ" }</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+    </row>
+    <row r="43" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>{variations: ["επαναλαβε", "Επαναλαβε", "Επανάλαβε", "ΕΠΑΝΑΛΑΒΕ", "epanalabe", "epan;alabe", "Epanalabe", "Epan;alabe", "EPANALABE", "epanalave", "EPANALAVE", "", "", "", "", "", "", "", "", "", ""], correct: "επανάλαβε" }</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="L43" t="s">
-        <v>238</v>
-      </c>
-      <c r="M43" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{variations: ["σταθερες", "σταθερές", "stauerew", "STAUEREW", "statheres", "STATHERES", "σταθερεσ", "staueres", "STAUERES", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΣΤΑΘΕΡΕΣ" }</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>{variations: ["με_βημα", "Με_βημα", "Με_βήμα", "ΜΕ_ΒΗΜΑ", "me_bhma", "me_b;hma", "Me_bhma", "Me_b;hma", "ME_BHMA", "me_vhma", "ME_VHMA", "", "", "", "", "", "", "", "", "", ""], correct: "με_βήμα" }</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{variations: ["μεταβλητες", "μεταβλητές", "metablhtew", "METABLHTEW", "metablhtes", "METABLHTES", "μεταβλητεσ", "metablhtes", "METABLHTES", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΜΕΤΑΒΛΗΤΕΣ" }</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="K44" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>{variations: ["μεχρι", "Μεχρι", "Μέχρι", "ΜΕΧΡΙ", "mexri", "m;exri", "Mexri", "M;exri", "MEXRI", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "μέχρι" }</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{variations: ["ακεραιες", "ακέραιες", "ακεραιες:", "ΑΚΕΡΑΙΕΣ", "akeraiew", "AKERAIEW", "akeraies", "AKERAIES", "ακεραιεσ:", "akeraies", "AKERAIES", "", "", "", "", "", "", "", "", "", ""], correct: "ΑΚΕΡΑΙΕΣ:" }</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="L45" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="M45" s="23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>{variations: ["μεχρις_οτου", "μέχρις_ότου", "Μεχρις_οτου", "ΜΕΧΡΙς_ΟΤΟΥ", "mexriw_otoy", "m;exriw_;otoy", "Mexriw_otoy", "M;exriw_;otoy", "MEXRIW_OTOY", "mexris_otoy", "MEXRIS_OTOY", "", "", "", "", "", "", "", "", "", ""], correct: "Μέχρις_ότου" }</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{variations: ["πραγματικες", "πραγματικές", "πραγματικες:", "ΠΡΑΓΜΑΤΙΚΕΣ", "pragmatikew", "PRAGMATIKEW", "pragmatikes", "PRAGMATIKES", "πραγματικεσ:", "pragmatikes", "PRAGMATIKES", "", "", "", "", "", "", "", "", "", ""], correct: "ΠΡΑΓΜΑΤΙΚΕΣ:" }</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="L46" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>{variations: ["οσο", "όσο", "Οσο", "Όσο", "ΟΣΟ", "oso", ";oso", "Oso", ";Oso", "OSO", "", "", "", "", "", "", "", "", "", "", ""], correct: "Όσο" }</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="M47" s="6"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="6"/>
-    </row>
-    <row r="48" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{variations: ["χαρακτηρες", "χαρακτήρες", "χαρακτηρες:", "ΧΑΡΑΚΤΗΡΕΣ", "xarakthrew", "XARAKTHREW", "xarakthres", "XARAKTHRES", "χαρακτηρεσ:", "xarakthres", "XARAKTHRES", "", "", "", "", "", "", "", "", "", ""], correct: "ΧΑΡΑΚΤΗΡΕΣ:" }</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>{variations: ["τελος", "τέλος", "Τελος", "ΤΕΛΟς", "telow", "t;elow", "Telow", "T;elow", "TELOW", "telos", "TELOS", "τελοσ", "τέλοσ", "Τελοσ", "ΤΕΛΟΣ", "t;elos", "Telos", "T;elos", "", "", ""], correct: "Τέλος " }</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="L48" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="M48" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="S48" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="T48" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="U48" s="4"/>
-      <c r="V48" s="6"/>
-    </row>
-    <row r="49" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{variations: ["λογικες", "λογικές", "λογικες:", "ΛΟΓΙΚΕΣ", "logikew", "LOGIKEW", "logikes", "LOGIKES", "logikes", "LOGIKES", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΛΟΓΙΚΕΣ:" }</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>{variations: ["τελος_αν", "Τελος_αν", "ΤΕΛΟς_ΑΝ", "telow_an", "t;elow_an", "Telow_an", "T;elow_an", "TELOW_AN", "telos_an", "TELOS_AN", "τελοσ_αν", "Τελοσ_αν", "Τέλοσ_αν", "ΤΕΛΟΣ_ΑΝ", "t;elos_an", "Telos_an", "T;elos_an", "", "", "", ""], correct: "Τέλος_αν" }</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="N49" t="s">
-        <v>276</v>
-      </c>
-      <c r="O49" t="s">
-        <v>277</v>
-      </c>
-      <c r="P49" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>294</v>
-      </c>
-      <c r="R49" t="s">
-        <v>296</v>
-      </c>
-      <c r="S49" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{variations: ["αρχη", "αρχή", "arxh", "ARXH", "arxh", "ARXH", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΑΡΧΗ" }</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>{variations: ["τελος_επαναληψης", "τέλος_επανάληψης", "Τελος_επαναληψης", "ΤΕΛΟς_ΕΠΑΝΑΛΗΨΗς", "telow_epanalhchw", "t;elow_epan;alhchw", "Telow_epanalhchw", "T;elow_epan;alhchw", "TELOW_EPANALHCHW", "telos_epanalhpshs", "TELOS_EPANALHPSHS", "τελοσ_επαναληψησ", "τέλοσ_επανάληψησ", "Τελοσ_επαναληψησ", "ΤΕΛΟΣ_ΕΠΑΝΑΛΗΨΗΣ", "telos_epanalhchs", "t;elos_epan;alhchs", "Telos_epanalhchs", "T;elos_epan;alhchs", "TELOS_EPANALHCHS", ""], correct: "Τέλος_επανάληψης" }</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="L50" t="s">
-        <v>239</v>
-      </c>
-      <c r="M50" t="s">
-        <v>249</v>
-      </c>
-      <c r="N50" t="s">
-        <v>278</v>
-      </c>
-      <c r="O50" t="s">
-        <v>279</v>
-      </c>
-      <c r="P50" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>128</v>
-      </c>
-      <c r="R50" t="s">
-        <v>300</v>
-      </c>
-      <c r="S50" t="s">
-        <v>302</v>
-      </c>
-      <c r="T50" t="s">
-        <v>305</v>
-      </c>
-      <c r="U50" t="s">
-        <v>308</v>
-      </c>
-      <c r="V50" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{variations: ["γραψε", "γράψε", "grace", "GRACE", "grapse", "GRAPSE", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΓΡΑΨΕ" }</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="6"/>
+    </row>
+    <row r="51" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>{variations: ["τοτε", "Τοτε", "Τότε", "ΤΟΤΕ", "tote", "t;ote", "Tote", "T;ote", "TOTE", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "τότε" }</v>
-      </c>
-      <c r="B51" s="10" t="s">
+        <v>{variations: ["διαβασε", "διάβασε", "diabase", "DIABASE", "diabase", "DIABASE", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΔΙΑΒΑΣΕ" }</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="6"/>
+    </row>
+    <row r="52" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["αν", "an", "AN", "an", "AN", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΑΝ" }</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+    </row>
+    <row r="53" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["τοτε", "τότε", "tote", "TOTE", "tote", "TOTE", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΤΟΤΕ" }</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="E53" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="K51" s="3" t="s">
+      <c r="F53" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>337</v>
+      <c r="G53" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["αλλιως_αν", "αλλιώς_αν", "allivw_an", "ALLIVW_AN", "alliws_an", "ALLIWS_AN", "αλλιωσ_αν", "allivs_an", "ALLIVS_AN", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΑΛΛΙΩΣ_ΑΝ" }</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["αλλιως", "αλλιώς", "allivw", "ALLIVW", "alliws", "ALLIWS", "αλλιωσ", "allivs", "ALLIVS", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΑΛΛΙΩΣ" }</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="K55" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["τελος_αν", "τέλος_αν", "telow_an", "TELOW_AN", "telos_an", "TELOS_AN", "τελοσ_αν", "telos_an", "TELOS_AN", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΤΕΛΟΣ_ΑΝ" }</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["για", "gia", "GIA", "gia", "GIA", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΓΙΑ" }</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["απο", "apo", "APO", "apo", "APO", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΑΠΟ" }</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["μεχρι", "μέχρι", "mexri", "MEXRI", "mexri", "MEXRI", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΜΕΧΡΙ" }</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="6"/>
+    </row>
+    <row r="60" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["με_βημα", "με_βήμα", "me_bhma", "ME_BHMA", "me_bhma", "ME_BHMA", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΜΕ_ΒΗΜΑ" }</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="N60" s="5"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="6"/>
+    </row>
+    <row r="61" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["αρχη_επαναληψης", "αρχή_επανάληψης", "arxh_epanalhchw", "ARXH_EPANALHCHW", "arxh_epanalhpshs", "ARXH_EPANALHPSHS", "αρχη_επαναληψησ", "arxh_epanalhchs", "ARXH_EPANALHCHS", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΑΡΧΗ_ΕΠΑΝΑΛΗΨΗΣ" }</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="J61" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="K61" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["οσο", "όσο", "oso", "OSO", "oso", "OSO", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΟΣΟ" }</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["επαναλαβε", "επανάλαβε", "epanalabe", "EPANALABE", "epanalabe", "EPANALABE", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΕΠΑΝΑΛΑΒΕ" }</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["τελος_επαναληψης", "τέλος_επανάληψης", "telow_epanalhchw", "TELOW_EPANALHCHW", "telos_epanalhpshs", "TELOS_EPANALHPSHS", "τελοσ_επαναληψησ", "telos_epanalhchs", "TELOS_EPANALHCHS", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΤΕΛΟΣ_ΕΠΑΝΑΛΗΨΗΣ" }</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="K64" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="45"/>
+    </row>
+    <row r="65" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["μεχρις_οτου", "μέχρις_ότου", "mexriw_otoy", "MEXRIW_OTOY", "mexris_otoy", "MEXRIS_OTOY", "μεχρισ_οτου", "mexris_otoy", "MEXRIS_OTOY", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΜΕΧΡΙΣ_ΟΤΟΥ" }</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K65" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="45"/>
+    </row>
+    <row r="66" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["καλεσε", "κάλεσε", "kalewe", "KALEWE", "kalese", "KALESE", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΚΑΛΕΣΕ" }</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="45"/>
+    </row>
+    <row r="67" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["τελος_προγραμματος", "τέλος_προγράμματος", "telow_programmatow", "TELOW_PROGRAMMATOW", "telos_programmatos", "TELOS_PROGRAMMATOS", "τελοσ_προγραμματοσ", "telos_programmatos", "TELOS_PROGRAMMATOS", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΤΕΛΟΣ_ΠΡΟΓΡΑΜΜΑΤΟΣ" }</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="J67" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="K67" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="N67" s="45"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="45"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="45"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="45"/>
+    </row>
+    <row r="68" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["διαδικασια", "διαδικασία", "diadikasia", "DIADIKASIA", "diadikasia", "DIADIKASIA", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΔΙΑΔΙΚΑΣΙΑ" }</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="45"/>
+    </row>
+    <row r="69" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["τελος_διαδικασιας", "τέλος_διαδικασίας", "telow_diadikasiaw", "TELOW_DIADIKASIAW", "telos_diadikasias", "TELOS_DIADIKASIAS", "τελοσ_διαδικασιασ", "telos_diadikasias", "TELOS_DIADIKASIAS", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΤΕΛΟΣ_ΔΙΑΔΙΚΑΣΙΑΣ" }</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="I69" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="J69" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="K69" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="N69" s="45"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="45"/>
+    </row>
+    <row r="70" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["συναρτηση", "συνάρτηση", "synarthsh", "SYNARTHSH", "synarthsh", "SYNARTHSH", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΣΥΝΑΡΤΗΣΗ" }</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="45"/>
+    </row>
+    <row r="71" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["ακεραια", "ακέραια", ":ακεραια", "ΑΚΕΡΑΙΑ", "akeraia", "AKERAIA", "akeraia", "AKERAIA", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: ":ΑΚΕΡΑΙΑ" }</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="J71" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="N71" s="45"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="45"/>
+      <c r="Q71" s="45"/>
+      <c r="R71" s="45"/>
+      <c r="S71" s="45"/>
+      <c r="T71" s="45"/>
+    </row>
+    <row r="72" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["πραγματικη", "πραγματική", ":πραγματικη", "ΠΡΑΓΜΑΤΙΚΗ", "pragmatikh", "PRAGMATIKH", "pragmatikh", "PRAGMATIKH", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: ":ΠΡΑΓΜΑΤΙΚΗ" }</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="J72" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="N72" s="45"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="45"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="45"/>
+      <c r="S72" s="45"/>
+      <c r="T72" s="45"/>
+    </row>
+    <row r="73" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["χαρακτηρας", "χαρακτήρας", ":χαρακτηρας", "ΧΑΡΑΚΤΗΡΑΣ", "xarakthraw", "XARAKTHRAW", "xarakthras", "XARAKTHRAS", ":χαρακτηρασ", "xarakthras", "XARAKTHRAS", "", "", "", "", "", "", "", "", "", ""], correct: ":ΧΑΡΑΚΤΗΡΑΣ" }</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="I73" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="J73" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="M73" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="N73" s="45"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="45"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="45"/>
+    </row>
+    <row r="74" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["λογικη", "λογική", ":λογικη", "ΛΟΓΙΚΗ", "logikh", "LOGIKH", "logikh", "LOGIKH", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: ":ΛΟΓΙΚΗ" }</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="J74" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="45"/>
+      <c r="Q74" s="45"/>
+      <c r="R74" s="45"/>
+      <c r="S74" s="45"/>
+      <c r="T74" s="45"/>
+    </row>
+    <row r="75" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["τελος_συναρτησης", "τέλος_συνάρτησης", "telow_synarthshw", "TELOW_SYNARTHSHW", "telos_synarthshs", "TELOS_SYNARTHSHS", "τελοσ_συναρτησησ", "telos_synarthshs", "TELOS_SYNARTHSHS", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΤΕΛΟΣ_ΣΥΝΑΡΤΗΣΗΣ" }</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="I75" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="J75" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="K75" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="N75" s="45"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="45"/>
+      <c r="Q75" s="45"/>
+      <c r="R75" s="45"/>
+      <c r="S75" s="45"/>
+      <c r="T75" s="45"/>
+    </row>
+    <row r="76" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["η", "h", "H", "h", "H", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "Η" }</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="45"/>
+      <c r="Q76" s="45"/>
+      <c r="R76" s="45"/>
+      <c r="S76" s="45"/>
+      <c r="T76" s="45"/>
+    </row>
+    <row r="77" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["και", "kai", "KAI", "kai", "KAI", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΚΑΙ" }</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="N77" s="45"/>
+      <c r="O77" s="45"/>
+      <c r="P77" s="45"/>
+      <c r="Q77" s="45"/>
+      <c r="R77" s="45"/>
+      <c r="S77" s="45"/>
+      <c r="T77" s="45"/>
+    </row>
+    <row r="78" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>{variations: ["οχι", "όχι", "oxi", ";oxi", "OXI", "oxi", "OXI", "", "", "", "", "", "", "", "", "", "", "", "", "", ""], correct: "ΌΧΙ" }</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="I78" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
+      <c r="P78" s="45"/>
+      <c r="Q78" s="45"/>
+      <c r="R78" s="45"/>
+      <c r="S78" s="45"/>
+      <c r="T78" s="45"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="45"/>
+      <c r="O79" s="45"/>
+      <c r="P79" s="45"/>
+      <c r="Q79" s="45"/>
+      <c r="R79" s="45"/>
+      <c r="S79" s="45"/>
+      <c r="T79" s="45"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="45"/>
+      <c r="P80" s="45"/>
+      <c r="Q80" s="45"/>
+      <c r="R80" s="45"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="45"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
